--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4154F8-37B2-43BC-BAD5-DCA9E10594DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EBAC6D-317B-411A-90BD-7DDA158C8F7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="525" windowWidth="9780" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>System</t>
   </si>
@@ -64,18 +64,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Part </t>
     </r>
@@ -92,15 +80,6 @@
   </si>
   <si>
     <t>EN</t>
-  </si>
-  <si>
-    <t>EN_06004</t>
-  </si>
-  <si>
-    <t>EN_06005</t>
-  </si>
-  <si>
-    <t>EN_06006</t>
   </si>
   <si>
     <t>Fuel Tank Assembly</t>
@@ -561,11 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -605,131 +584,74 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4154F8-37B2-43BC-BAD5-DCA9E10594DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="525" windowWidth="9780" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="528" windowWidth="9780" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>System</t>
   </si>
@@ -64,18 +63,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Part </t>
     </r>
@@ -94,15 +81,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>EN_06004</t>
-  </si>
-  <si>
-    <t>EN_06005</t>
-  </si>
-  <si>
-    <t>EN_06006</t>
-  </si>
-  <si>
     <t>Fuel Tank Assembly</t>
   </si>
   <si>
@@ -145,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,27 +538,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -603,133 +581,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EBAC6D-317B-411A-90BD-7DDA158C8F7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AED468-FF9A-435B-98F4-C7B77C7E82B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>System</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Fuel Tank Assembly</t>
   </si>
   <si>
-    <t>Fuel Tank(with filler neck)</t>
-  </si>
-  <si>
     <t>Filler Cap</t>
   </si>
   <si>
@@ -112,13 +109,52 @@
     <t>EN_09003</t>
   </si>
   <si>
-    <t>Under the seat</t>
-  </si>
-  <si>
     <t>On the top of filler Tube</t>
   </si>
   <si>
     <t>With Fuel Tank</t>
+  </si>
+  <si>
+    <t>Fuel Tank(main1)</t>
+  </si>
+  <si>
+    <t>Fuel Tank(main2)</t>
+  </si>
+  <si>
+    <t>Fuel Tank(bottom)</t>
+  </si>
+  <si>
+    <t>Fuel Tank(Triangle)</t>
+  </si>
+  <si>
+    <t>Filler Neck</t>
+  </si>
+  <si>
+    <t>Under the seat (Folding-front part)</t>
+  </si>
+  <si>
+    <t>Under the seat (Folding-top part)</t>
+  </si>
+  <si>
+    <t>Under the seat (Folding-bottom part)</t>
+  </si>
+  <si>
+    <t>Under the seat (With Fuel Tank)</t>
+  </si>
+  <si>
+    <t>EN_09004</t>
+  </si>
+  <si>
+    <t>EN_09005</t>
+  </si>
+  <si>
+    <t>EN_09006</t>
+  </si>
+  <si>
+    <t>EN_09007</t>
+  </si>
+  <si>
+    <t>Fixed to Fuel Tank</t>
   </si>
 </sst>
 </file>
@@ -540,11 +576,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,64 +630,140 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AED468-FF9A-435B-98F4-C7B77C7E82B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -154,13 +153,13 @@
     <t>EN_09007</t>
   </si>
   <si>
-    <t>Fixed to Fuel Tank</t>
+    <t>Welded to Fuel Tank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,27 +574,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="I1:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -633,7 +632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -652,7 +651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -671,7 +670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -690,7 +689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -709,7 +708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -728,7 +727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -747,7 +746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -96,9 +96,6 @@
     <t xml:space="preserve"> b</t>
   </si>
   <si>
-    <t>EN_A0009</t>
-  </si>
-  <si>
     <t>EN_09001</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Welded to Fuel Tank</t>
+  </si>
+  <si>
+    <t>EN_A0900</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="I1:L13"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,102 +629,102 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -737,13 +737,13 @@
         <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -756,13 +756,13 @@
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="EN_A0900" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
   <si>
     <t>System</t>
   </si>
@@ -155,12 +156,54 @@
   <si>
     <t>EN_A0900</t>
   </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Assembly Processes</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>To be completed</t>
+  </si>
+  <si>
+    <t>Tba</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>EN - Fuel Tank Assembly</t>
+  </si>
+  <si>
+    <t>EN_A0900_P</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +246,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +288,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -279,11 +350,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -294,6 +378,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,9 +676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,4 +868,369 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF06189D-A49F-4085-A429-BBB0E2BC7360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0900" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
   <si>
     <t>System</t>
   </si>
@@ -198,11 +199,14 @@
   <si>
     <t>EN_A0900_P</t>
   </si>
+  <si>
+    <t>Filler cap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -393,6 +397,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,27 +680,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -731,7 +738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -750,7 +757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -769,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -788,7 +795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -807,7 +814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -826,7 +833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -845,7 +852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -871,25 +878,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -915,7 +923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -929,7 +937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>36</v>
@@ -945,7 +953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -963,7 +971,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -981,7 +989,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -999,7 +1007,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1017,7 +1025,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1035,7 +1043,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1053,13 +1061,13 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1069,7 +1077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1087,7 +1095,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1105,10 +1113,10 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>37</v>
@@ -1121,15 +1129,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>39</v>
@@ -1139,7 +1147,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1157,7 +1165,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1175,7 +1183,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1193,7 +1201,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1211,7 +1219,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1229,6 +1237,86 @@
       </c>
       <c r="H19" s="8"/>
     </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF06189D-A49F-4085-A429-BBB0E2BC7360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1999C9B9-C7AA-4B77-8789-66919166F772}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="142">
   <si>
     <t>System</t>
   </si>
@@ -176,12 +176,6 @@
     <t>Materials</t>
   </si>
   <si>
-    <t>To be completed</t>
-  </si>
-  <si>
-    <t>Tba</t>
-  </si>
-  <si>
     <t>Process</t>
   </si>
   <si>
@@ -200,14 +194,305 @@
     <t>EN_A0900_P</t>
   </si>
   <si>
-    <t>Filler cap</t>
+    <t>Mount, Vibration-Damping, Sandwich</t>
+  </si>
+  <si>
+    <t>Hose, Silicone</t>
+  </si>
+  <si>
+    <t>Seal, O-Ring, Elastomer</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>Aerosol apply</t>
+  </si>
+  <si>
+    <t>Assemble,1kg,Loose</t>
+  </si>
+  <si>
+    <t>Ratchet &lt;= 6.35 mm</t>
+  </si>
+  <si>
+    <t>Reaction tool, &lt;= 6,35 mm</t>
+  </si>
+  <si>
+    <t>Assemble, 1kg, Loose</t>
+  </si>
+  <si>
+    <t>Screwdriver &gt; 1 Turn</t>
+  </si>
+  <si>
+    <t>Reaction Tool &lt;= 6.35 mm</t>
+  </si>
+  <si>
+    <t>Hand, Loose &gt; 25.4 mm</t>
+  </si>
+  <si>
+    <t>Nut, Grade 8.8 (SAE 5)</t>
+  </si>
+  <si>
+    <t>Washer, Grade 8.8 (SAE 5)</t>
+  </si>
+  <si>
+    <t>Bolt, Grade 8.8 (SAE 5)</t>
+  </si>
+  <si>
+    <t>Hose Clamp, Worm Drive</t>
+  </si>
+  <si>
+    <t>Vibration-Damping, Sandwich for fuel tank</t>
+  </si>
+  <si>
+    <t>Filler hose raccording Filler tube and Filler neck</t>
+  </si>
+  <si>
+    <t>Between the plug and the filler tube</t>
+  </si>
+  <si>
+    <t>Tabs painting</t>
+  </si>
+  <si>
+    <t>Tabs welding</t>
+  </si>
+  <si>
+    <t>Vibration dampings sandwich on Fuel tank</t>
+  </si>
+  <si>
+    <t>Tighten vibration damping sandwich on Fuel Tank</t>
+  </si>
+  <si>
+    <t>Fuel tank on the tabs</t>
+  </si>
+  <si>
+    <t>Tighten Fuel tank on the tabs</t>
+  </si>
+  <si>
+    <t>Clamp on the Filler hose</t>
+  </si>
+  <si>
+    <t>Hose clamps</t>
+  </si>
+  <si>
+    <t>Filler tube collar on collar tab</t>
+  </si>
+  <si>
+    <t>Tighten Filler tube collar on collar tab</t>
+  </si>
+  <si>
+    <t>Seal O-ring + Filler tube cap</t>
+  </si>
+  <si>
+    <t>Clamp for filler neck and filler tube</t>
+  </si>
+  <si>
+    <t>Clamp on tube of frame to attach the filler tube</t>
+  </si>
+  <si>
+    <t>M4 nut for vibration damping sandwich</t>
+  </si>
+  <si>
+    <t>M4 washer for vibration damping sandwich</t>
+  </si>
+  <si>
+    <t>M4 bolt for collar on collar mount</t>
+  </si>
+  <si>
+    <t>M4 nut for collar on collar mount +  for vibration damping sandwich</t>
+  </si>
+  <si>
+    <t>Aluminum, Normal (per kg)</t>
+  </si>
+  <si>
+    <t>Fuel tank plate material</t>
+  </si>
+  <si>
+    <t>Machining Setup, Install and Remove</t>
+  </si>
+  <si>
+    <t>Plate material cut</t>
+  </si>
+  <si>
+    <t>Laser cut</t>
+  </si>
+  <si>
+    <t>Side plate</t>
+  </si>
+  <si>
+    <t>180cm</t>
+  </si>
+  <si>
+    <t>Fitting, Weld-in, Male, Aluminum</t>
+  </si>
+  <si>
+    <t>For Dash6 connection</t>
+  </si>
+  <si>
+    <t>Sheet metal bends</t>
+  </si>
+  <si>
+    <t>Upper plate</t>
+  </si>
+  <si>
+    <t>178cm</t>
+  </si>
+  <si>
+    <t>Lower plate</t>
+  </si>
+  <si>
+    <t>128cm</t>
+  </si>
+  <si>
+    <t>Cavity</t>
+  </si>
+  <si>
+    <t>42cm</t>
+  </si>
+  <si>
+    <t>Tube cut</t>
+  </si>
+  <si>
+    <t>Neck tube cut</t>
+  </si>
+  <si>
+    <t>Fuel tank welding + neck tube</t>
+  </si>
+  <si>
+    <t>4.5cm</t>
+  </si>
+  <si>
+    <t>486cm</t>
+  </si>
+  <si>
+    <t>Drilled holes &lt; 25.4 mm dia.</t>
+  </si>
+  <si>
+    <t>Threading, External (machining)</t>
+  </si>
+  <si>
+    <t>Cut (scissors, knife)</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Interference</t>
+  </si>
+  <si>
+    <t>Filler neck body</t>
+  </si>
+  <si>
+    <t>Adapter plug - filler neck body</t>
+  </si>
+  <si>
+    <t>Sight tube fitting</t>
+  </si>
+  <si>
+    <t>Sight tube</t>
+  </si>
+  <si>
+    <t>Attach to fuel tank</t>
+  </si>
+  <si>
+    <t>Filler neck body,  and sight tube fitting</t>
+  </si>
+  <si>
+    <t>Thread for plug</t>
+  </si>
+  <si>
+    <t>Barb fittings welding on tube</t>
+  </si>
+  <si>
+    <t>Hose and sight tube cut</t>
+  </si>
+  <si>
+    <t>Hose, frame attach and sight tube mounting</t>
+  </si>
+  <si>
+    <t>Hose,  frame attach and sight tube clamp</t>
+  </si>
+  <si>
+    <t>Attach sight tube to filler tube</t>
+  </si>
+  <si>
+    <t>Attach the filler tube to frame</t>
+  </si>
+  <si>
+    <t>Attach filler tube to hose</t>
+  </si>
+  <si>
+    <t>8cm</t>
+  </si>
+  <si>
+    <t>1cm</t>
+  </si>
+  <si>
+    <t>10cm</t>
+  </si>
+  <si>
+    <t>4cm</t>
+  </si>
+  <si>
+    <t>0.011 m^2</t>
+  </si>
+  <si>
+    <t>9.38cm</t>
+  </si>
+  <si>
+    <t>0.011m^2</t>
+  </si>
+  <si>
+    <t>0.14m</t>
+  </si>
+  <si>
+    <t>Hose, FEP</t>
+  </si>
+  <si>
+    <t>Aluminum - Normal (per kg)</t>
+  </si>
+  <si>
+    <t>Fuel Check Valve, In-line, Aluminum Rollover</t>
+  </si>
+  <si>
+    <t>Cap material</t>
+  </si>
+  <si>
+    <t>Machning Setup, Install and Remove</t>
+  </si>
+  <si>
+    <t>Machining</t>
+  </si>
+  <si>
+    <t>Threading, Internal (machining)</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Line-on-Line</t>
+  </si>
+  <si>
+    <t>Fuel Check Valve hole (20mm)</t>
+  </si>
+  <si>
+    <t>Fuel Check Valve assembling</t>
+  </si>
+  <si>
+    <t>50cm</t>
+  </si>
+  <si>
+    <t>12cm^3</t>
+  </si>
+  <si>
+    <t>Welds - Welding Fixture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +551,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -305,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -367,11 +659,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -398,12 +709,11 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{AB1F5859-1D97-400D-A1B5-5B3B134C0D21}"/>
+    <cellStyle name="Style 1" xfId="2" xr:uid="{542822D6-76A2-49E1-89A4-48BE13D71C6F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -879,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +1235,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -950,372 +1260,1298 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>40</v>
+        <v>83</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
       </c>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="D5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>40</v>
+        <v>62</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
       </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="D6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
       </c>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="D8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>40</v>
+        <v>90</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="9">
+        <v>4</v>
+      </c>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="G14" s="9">
+        <v>4</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>40</v>
+        <v>69</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>40</v>
+        <v>70</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>40</v>
+        <v>70</v>
+      </c>
+      <c r="G17" s="9">
+        <v>4</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>40</v>
+        <v>71</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="9">
+        <v>4</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="9">
+        <v>8</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="9">
+        <v>4</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="9">
+        <v>5</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="9">
+        <v>5</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="9">
+        <v>2</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
+      <c r="C46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G58" s="9">
+        <v>2</v>
+      </c>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G67" s="9">
+        <v>2</v>
+      </c>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" s="9">
+        <v>2</v>
+      </c>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71" s="9">
+        <v>6</v>
+      </c>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G72" s="9">
+        <v>4</v>
+      </c>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G73" s="9">
+        <v>2</v>
+      </c>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="9">
+        <v>1</v>
+      </c>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G75" s="9">
+        <v>1</v>
+      </c>
+      <c r="H75" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1999C9B9-C7AA-4B77-8789-66919166F772}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BCFF21-9742-4682-B1FD-0D54740EA041}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="90" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="142">
   <si>
     <t>System</t>
   </si>
@@ -1191,18 +1191,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
@@ -1265,16 +1265,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="F4" s="9" t="s">
         <v>83</v>
       </c>
@@ -1285,16 +1283,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="F5" s="9" t="s">
         <v>62</v>
       </c>
@@ -1305,16 +1301,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="F6" s="9" t="s">
         <v>63</v>
       </c>
@@ -1323,16 +1317,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="F7" s="9" t="s">
         <v>64</v>
       </c>
@@ -1343,16 +1335,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>65</v>
       </c>
@@ -1363,14 +1353,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="F9" s="9" t="s">
         <v>90</v>
       </c>
@@ -1381,14 +1371,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="F10" s="9" t="s">
         <v>85</v>
       </c>
@@ -1399,14 +1389,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F11" s="9" t="s">
         <v>66</v>
       </c>
@@ -1417,14 +1407,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="F12" s="9" t="s">
         <v>65</v>
       </c>
@@ -1435,14 +1425,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="F13" s="9" t="s">
         <v>67</v>
       </c>
@@ -1453,14 +1443,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="F14" s="9" t="s">
         <v>68</v>
       </c>
@@ -1471,14 +1461,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="F15" s="9" t="s">
         <v>69</v>
       </c>
@@ -1489,14 +1479,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="9" t="s">
         <v>70</v>
       </c>
@@ -1507,14 +1497,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="F17" s="9" t="s">
         <v>70</v>
       </c>
@@ -1525,14 +1515,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="F18" s="9" t="s">
         <v>71</v>
       </c>
@@ -1543,14 +1533,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F19" s="9" t="s">
         <v>72</v>
       </c>
@@ -1561,14 +1551,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="F20" s="9" t="s">
         <v>73</v>
       </c>
@@ -1579,14 +1569,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="F21" s="9" t="s">
         <v>74</v>
       </c>
@@ -1597,14 +1587,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="F22" s="9" t="s">
         <v>75</v>
       </c>
@@ -1615,14 +1605,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="F23" s="9" t="s">
         <v>78</v>
       </c>
@@ -1633,14 +1623,14 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="F24" s="9" t="s">
         <v>79</v>
       </c>
@@ -1651,14 +1641,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="F25" s="9" t="s">
         <v>80</v>
       </c>
@@ -1669,14 +1659,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="F26" s="9" t="s">
         <v>81</v>
       </c>
@@ -1687,14 +1677,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="F27" s="9" t="s">
         <v>76</v>
       </c>
@@ -1705,14 +1695,14 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="F28" s="9" t="s">
         <v>77</v>
       </c>
@@ -1723,14 +1713,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="9" t="s">
         <v>77</v>
       </c>
@@ -1741,14 +1731,14 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="F30" s="9" t="s">
         <v>66</v>
       </c>
@@ -1773,14 +1763,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="F32" s="9" t="s">
         <v>87</v>
       </c>
@@ -1791,14 +1781,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="F33" s="9" t="s">
         <v>87</v>
       </c>
@@ -1825,14 +1815,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
@@ -1843,14 +1833,14 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="F36" s="9" t="s">
         <v>92</v>
       </c>
@@ -1877,14 +1867,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="F38" s="9" t="s">
         <v>94</v>
       </c>
@@ -1895,14 +1885,14 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="F39" s="9" t="s">
         <v>94</v>
       </c>
@@ -1929,14 +1919,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="F41" s="9" t="s">
         <v>96</v>
       </c>
@@ -1947,14 +1937,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="F42" s="9" t="s">
         <v>96</v>
       </c>
@@ -1981,14 +1971,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="B44" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="F44" s="9" t="s">
         <v>99</v>
       </c>
@@ -1999,14 +1989,14 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F45" s="9" t="s">
         <v>100</v>
       </c>
@@ -2033,16 +2023,14 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="B47" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="9"/>
+      <c r="E47" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="F47" s="9" t="s">
         <v>132</v>
       </c>
@@ -2053,16 +2041,14 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9">
         <v>1</v>
@@ -2071,14 +2057,14 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="B49" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9">
         <v>1</v>
@@ -2087,14 +2073,14 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
-      <c r="B50" s="8" t="s">
-        <v>134</v>
-      </c>
+      <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="9"/>
+      <c r="E50" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
         <v>140</v>
@@ -2103,14 +2089,14 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
-      <c r="B51" s="8" t="s">
-        <v>135</v>
-      </c>
+      <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
         <v>139</v>
@@ -2119,14 +2105,14 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
-      <c r="B52" s="8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="F52" s="9" t="s">
         <v>137</v>
       </c>
@@ -2137,14 +2123,14 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="9"/>
+      <c r="E53" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="F53" s="9" t="s">
         <v>138</v>
       </c>
@@ -2155,14 +2141,14 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="8"/>
@@ -2185,16 +2171,14 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="9"/>
+      <c r="E56" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="F56" s="9" t="s">
         <v>107</v>
       </c>
@@ -2205,16 +2189,14 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
-      <c r="B57" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="9"/>
+      <c r="E57" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="F57" s="9" t="s">
         <v>108</v>
       </c>
@@ -2225,16 +2207,14 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="F58" s="9" t="s">
         <v>109</v>
       </c>
@@ -2245,16 +2225,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
-      <c r="B59" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="F59" s="9" t="s">
         <v>110</v>
       </c>
@@ -2265,16 +2243,14 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
-      <c r="B60" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="F60" s="9" t="s">
         <v>111</v>
       </c>
@@ -2285,14 +2261,14 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
-      <c r="B61" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="F61" s="9" t="s">
         <v>112</v>
       </c>
@@ -2303,14 +2279,14 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
-      <c r="B62" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="9"/>
+      <c r="E62" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="F62" s="9" t="s">
         <v>107</v>
       </c>
@@ -2321,14 +2297,14 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
-      <c r="B63" s="8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="F63" s="9" t="s">
         <v>107</v>
       </c>
@@ -2339,14 +2315,14 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
-      <c r="B64" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="9"/>
+      <c r="E64" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="F64" s="9" t="s">
         <v>108</v>
       </c>
@@ -2357,14 +2333,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="B65" s="8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="9"/>
+      <c r="E65" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="F65" s="9" t="s">
         <v>108</v>
       </c>
@@ -2375,14 +2351,14 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
-      <c r="B66" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="9"/>
+      <c r="E66" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="F66" s="9" t="s">
         <v>113</v>
       </c>
@@ -2393,14 +2369,14 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
-      <c r="B67" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="9"/>
+      <c r="E67" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="F67" s="9" t="s">
         <v>109</v>
       </c>
@@ -2411,14 +2387,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
-      <c r="B68" s="8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="9"/>
+      <c r="E68" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="F68" s="9" t="s">
         <v>109</v>
       </c>
@@ -2429,14 +2405,14 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
-      <c r="B69" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="9"/>
+      <c r="E69" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F69" s="9" t="s">
         <v>114</v>
       </c>
@@ -2447,14 +2423,14 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
-      <c r="B70" s="8" t="s">
-        <v>105</v>
-      </c>
+      <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="9"/>
+      <c r="E70" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="F70" s="9" t="s">
         <v>115</v>
       </c>
@@ -2465,14 +2441,14 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
-      <c r="B71" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="9"/>
+      <c r="E71" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="F71" s="9" t="s">
         <v>116</v>
       </c>
@@ -2483,14 +2459,14 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
-      <c r="B72" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="9"/>
+      <c r="E72" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F72" s="9" t="s">
         <v>117</v>
       </c>
@@ -2501,14 +2477,14 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
-      <c r="B73" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E73" s="9"/>
+      <c r="E73" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="F73" s="9" t="s">
         <v>118</v>
       </c>
@@ -2519,14 +2495,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
-      <c r="B74" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="F74" s="9" t="s">
         <v>119</v>
       </c>
@@ -2537,14 +2513,14 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
-      <c r="B75" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E75" s="9"/>
+      <c r="E75" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="F75" s="9" t="s">
         <v>120</v>
       </c>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BCFF21-9742-4682-B1FD-0D54740EA041}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B3628C-66C1-4014-849E-3B7E52CE4FC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="90" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="690" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -263,9 +263,6 @@
     <t>Vibration dampings sandwich on Fuel tank</t>
   </si>
   <si>
-    <t>Tighten vibration damping sandwich on Fuel Tank</t>
-  </si>
-  <si>
     <t>Fuel tank on the tabs</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t>M4 bolt for collar on collar mount</t>
   </si>
   <si>
-    <t>M4 nut for collar on collar mount +  for vibration damping sandwich</t>
-  </si>
-  <si>
     <t>Aluminum, Normal (per kg)</t>
   </si>
   <si>
@@ -483,6 +477,12 @@
   </si>
   <si>
     <t>Welds - Welding Fixture</t>
+  </si>
+  <si>
+    <t>Tighten vibration damping sandwich-Fuel Tank</t>
+  </si>
+  <si>
+    <t>M4 nut(collar mount) + vibration damping sandwich</t>
   </si>
 </sst>
 </file>
@@ -993,9 +993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,10 +1271,10 @@
         <v>38</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>65</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -1359,10 +1359,10 @@
         <v>38</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
@@ -1377,10 +1377,10 @@
         <v>39</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
@@ -1401,7 +1401,7 @@
         <v>66</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -1419,7 +1419,7 @@
         <v>65</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -1452,7 +1452,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="G14" s="9">
         <v>4</v>
@@ -1470,7 +1470,7 @@
         <v>51</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="9">
         <v>4</v>
@@ -1506,7 +1506,7 @@
         <v>53</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="9">
         <v>4</v>
@@ -1524,7 +1524,7 @@
         <v>54</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="9">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>55</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="9">
         <v>2</v>
@@ -1560,7 +1560,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="9">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>56</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="9">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         <v>57</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" s="9">
         <v>2</v>
@@ -1614,7 +1614,7 @@
         <v>58</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="9">
         <v>4</v>
@@ -1632,7 +1632,7 @@
         <v>59</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="9">
         <v>8</v>
@@ -1650,7 +1650,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="9">
         <v>4</v>
@@ -1668,7 +1668,7 @@
         <v>58</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="G26" s="9">
         <v>5</v>
@@ -1686,7 +1686,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="9">
         <v>5</v>
@@ -1704,7 +1704,7 @@
         <v>61</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" s="9">
         <v>1</v>
@@ -1722,7 +1722,7 @@
         <v>61</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" s="9">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>66</v>
@@ -1769,13 +1769,13 @@
         <v>39</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="H32" s="8"/>
     </row>
@@ -1787,10 +1787,10 @@
         <v>39</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G33" s="9">
         <v>2</v>
@@ -1821,13 +1821,13 @@
         <v>39</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H35" s="8"/>
     </row>
@@ -1839,10 +1839,10 @@
         <v>39</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G36" s="9">
         <v>1</v>
@@ -1873,13 +1873,13 @@
         <v>39</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H38" s="8"/>
     </row>
@@ -1891,10 +1891,10 @@
         <v>39</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
@@ -1925,13 +1925,13 @@
         <v>39</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H41" s="8"/>
     </row>
@@ -1943,10 +1943,10 @@
         <v>39</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G42" s="9">
         <v>1</v>
@@ -1977,13 +1977,13 @@
         <v>39</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -1998,10 +1998,10 @@
         <v>49</v>
       </c>
       <c r="F45" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="H45" s="8"/>
     </row>
@@ -2029,10 +2029,10 @@
         <v>38</v>
       </c>
       <c r="E47" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>38</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9">
@@ -2063,7 +2063,7 @@
         <v>39</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9">
@@ -2079,11 +2079,11 @@
         <v>39</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H50" s="8"/>
     </row>
@@ -2095,11 +2095,11 @@
         <v>39</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -2111,10 +2111,10 @@
         <v>39</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G52" s="9">
         <v>1</v>
@@ -2129,10 +2129,10 @@
         <v>39</v>
       </c>
       <c r="E53" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="G53" s="9">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>41</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -2177,10 +2177,10 @@
         <v>38</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G56" s="9">
         <v>1</v>
@@ -2195,10 +2195,10 @@
         <v>38</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G57" s="9">
         <v>1</v>
@@ -2213,10 +2213,10 @@
         <v>38</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G58" s="9">
         <v>2</v>
@@ -2231,13 +2231,13 @@
         <v>38</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H59" s="8"/>
     </row>
@@ -2252,7 +2252,7 @@
         <v>46</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G60" s="9">
         <v>0.11</v>
@@ -2267,13 +2267,13 @@
         <v>39</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H61" s="8"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>39</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G62" s="9">
         <v>1</v>
@@ -2303,10 +2303,10 @@
         <v>39</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G63" s="9">
         <v>1</v>
@@ -2321,10 +2321,10 @@
         <v>39</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G64" s="9">
         <v>1</v>
@@ -2339,10 +2339,10 @@
         <v>39</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G65" s="9">
         <v>1</v>
@@ -2357,13 +2357,13 @@
         <v>39</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H66" s="8"/>
     </row>
@@ -2375,10 +2375,10 @@
         <v>39</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G67" s="9">
         <v>2</v>
@@ -2393,10 +2393,10 @@
         <v>39</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G68" s="9">
         <v>2</v>
@@ -2414,10 +2414,10 @@
         <v>49</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H69" s="8"/>
     </row>
@@ -2429,13 +2429,13 @@
         <v>39</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H70" s="8"/>
     </row>
@@ -2447,10 +2447,10 @@
         <v>39</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G71" s="9">
         <v>6</v>
@@ -2468,7 +2468,7 @@
         <v>55</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G72" s="9">
         <v>4</v>
@@ -2486,7 +2486,7 @@
         <v>61</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G73" s="9">
         <v>2</v>
@@ -2504,7 +2504,7 @@
         <v>61</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G74" s="9">
         <v>1</v>
@@ -2522,7 +2522,7 @@
         <v>61</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G75" s="9">
         <v>1</v>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B3628C-66C1-4014-849E-3B7E52CE4FC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5E702E9-21AE-4D41-B19F-97B9F0F92540}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="690" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="110">
   <si>
     <t>System</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Fasteners</t>
   </si>
   <si>
-    <t>Tooling</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -197,42 +194,9 @@
     <t>Mount, Vibration-Damping, Sandwich</t>
   </si>
   <si>
-    <t>Hose, Silicone</t>
-  </si>
-  <si>
-    <t>Seal, O-Ring, Elastomer</t>
-  </si>
-  <si>
-    <t>Paint</t>
-  </si>
-  <si>
     <t>Weld</t>
   </si>
   <si>
-    <t>Aerosol apply</t>
-  </si>
-  <si>
-    <t>Assemble,1kg,Loose</t>
-  </si>
-  <si>
-    <t>Ratchet &lt;= 6.35 mm</t>
-  </si>
-  <si>
-    <t>Reaction tool, &lt;= 6,35 mm</t>
-  </si>
-  <si>
-    <t>Assemble, 1kg, Loose</t>
-  </si>
-  <si>
-    <t>Screwdriver &gt; 1 Turn</t>
-  </si>
-  <si>
-    <t>Reaction Tool &lt;= 6.35 mm</t>
-  </si>
-  <si>
-    <t>Hand, Loose &gt; 25.4 mm</t>
-  </si>
-  <si>
     <t>Nut, Grade 8.8 (SAE 5)</t>
   </si>
   <si>
@@ -248,18 +212,6 @@
     <t>Vibration-Damping, Sandwich for fuel tank</t>
   </si>
   <si>
-    <t>Filler hose raccording Filler tube and Filler neck</t>
-  </si>
-  <si>
-    <t>Between the plug and the filler tube</t>
-  </si>
-  <si>
-    <t>Tabs painting</t>
-  </si>
-  <si>
-    <t>Tabs welding</t>
-  </si>
-  <si>
     <t>Vibration dampings sandwich on Fuel tank</t>
   </si>
   <si>
@@ -269,36 +221,12 @@
     <t>Tighten Fuel tank on the tabs</t>
   </si>
   <si>
-    <t>Clamp on the Filler hose</t>
-  </si>
-  <si>
-    <t>Hose clamps</t>
-  </si>
-  <si>
-    <t>Filler tube collar on collar tab</t>
-  </si>
-  <si>
-    <t>Tighten Filler tube collar on collar tab</t>
-  </si>
-  <si>
-    <t>Seal O-ring + Filler tube cap</t>
-  </si>
-  <si>
-    <t>Clamp for filler neck and filler tube</t>
-  </si>
-  <si>
-    <t>Clamp on tube of frame to attach the filler tube</t>
-  </si>
-  <si>
     <t>M4 nut for vibration damping sandwich</t>
   </si>
   <si>
     <t>M4 washer for vibration damping sandwich</t>
   </si>
   <si>
-    <t>M4 bolt for collar on collar mount</t>
-  </si>
-  <si>
     <t>Aluminum, Normal (per kg)</t>
   </si>
   <si>
@@ -362,90 +290,45 @@
     <t>486cm</t>
   </si>
   <si>
-    <t>Drilled holes &lt; 25.4 mm dia.</t>
-  </si>
-  <si>
-    <t>Threading, External (machining)</t>
-  </si>
-  <si>
     <t>Cut (scissors, knife)</t>
   </si>
   <si>
-    <t>Assemble, 1 kg, Interference</t>
-  </si>
-  <si>
     <t>Filler neck body</t>
   </si>
   <si>
-    <t>Adapter plug - filler neck body</t>
-  </si>
-  <si>
     <t>Sight tube fitting</t>
   </si>
   <si>
     <t>Sight tube</t>
   </si>
   <si>
-    <t>Attach to fuel tank</t>
-  </si>
-  <si>
     <t>Filler neck body,  and sight tube fitting</t>
   </si>
   <si>
-    <t>Thread for plug</t>
-  </si>
-  <si>
     <t>Barb fittings welding on tube</t>
   </si>
   <si>
     <t>Hose and sight tube cut</t>
   </si>
   <si>
-    <t>Hose, frame attach and sight tube mounting</t>
-  </si>
-  <si>
-    <t>Hose,  frame attach and sight tube clamp</t>
-  </si>
-  <si>
     <t>Attach sight tube to filler tube</t>
   </si>
   <si>
-    <t>Attach the filler tube to frame</t>
-  </si>
-  <si>
     <t>Attach filler tube to hose</t>
   </si>
   <si>
     <t>8cm</t>
   </si>
   <si>
-    <t>1cm</t>
-  </si>
-  <si>
     <t>10cm</t>
   </si>
   <si>
     <t>4cm</t>
   </si>
   <si>
-    <t>0.011 m^2</t>
-  </si>
-  <si>
-    <t>9.38cm</t>
-  </si>
-  <si>
-    <t>0.011m^2</t>
-  </si>
-  <si>
-    <t>0.14m</t>
-  </si>
-  <si>
     <t>Hose, FEP</t>
   </si>
   <si>
-    <t>Aluminum - Normal (per kg)</t>
-  </si>
-  <si>
     <t>Fuel Check Valve, In-line, Aluminum Rollover</t>
   </si>
   <si>
@@ -458,31 +341,52 @@
     <t>Machining</t>
   </si>
   <si>
-    <t>Threading, Internal (machining)</t>
-  </si>
-  <si>
-    <t>Assemble, 1 kg, Line-on-Line</t>
-  </si>
-  <si>
     <t>Fuel Check Valve hole (20mm)</t>
   </si>
   <si>
     <t>Fuel Check Valve assembling</t>
   </si>
   <si>
-    <t>50cm</t>
-  </si>
-  <si>
     <t>12cm^3</t>
   </si>
   <si>
-    <t>Welds - Welding Fixture</t>
-  </si>
-  <si>
     <t>Tighten vibration damping sandwich-Fuel Tank</t>
   </si>
   <si>
-    <t>M4 nut(collar mount) + vibration damping sandwich</t>
+    <t>Assemble by hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminum, Normal </t>
+  </si>
+  <si>
+    <t>Aluminum, 2017A</t>
+  </si>
+  <si>
+    <t>Ratchet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screwdriver </t>
+  </si>
+  <si>
+    <t>M4 bolt vibration damping sandwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drilled holes </t>
+  </si>
+  <si>
+    <t>Assemble by  hand</t>
+  </si>
+  <si>
+    <t>0.145m</t>
+  </si>
+  <si>
+    <t>Hose  and sight tube mounting</t>
+  </si>
+  <si>
+    <t>Hose and sight tube clamp</t>
+  </si>
+  <si>
+    <t>Attach the filler tube to filler cap</t>
   </si>
 </sst>
 </file>
@@ -492,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +461,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -682,7 +599,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -709,6 +626,13 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
@@ -1189,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1159,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1260,26 +1184,26 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8"/>
+      <c r="F4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="11">
+        <v>4</v>
+      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -1289,13 +1213,13 @@
         <v>38</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -1304,15 +1228,17 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1320,49 +1246,49 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G7" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="8"/>
+    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="11">
+        <v>4</v>
+      </c>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
@@ -1377,13 +1303,13 @@
         <v>39</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G10" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" s="8"/>
     </row>
@@ -1392,16 +1318,16 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>124</v>
+        <v>54</v>
+      </c>
+      <c r="G11" s="9">
+        <v>4</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -1410,16 +1336,16 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>125</v>
+        <v>55</v>
+      </c>
+      <c r="G12" s="9">
+        <v>8</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -1428,53 +1354,49 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="G13" s="9">
         <v>4</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="9">
-        <v>4</v>
-      </c>
-      <c r="H14" s="8"/>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1485,13 +1407,13 @@
         <v>39</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="9">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -1503,50 +1425,46 @@
         <v>39</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G17" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8"/>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="9">
-        <v>2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1557,13 +1475,13 @@
         <v>39</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="H20" s="8"/>
     </row>
@@ -1575,50 +1493,46 @@
         <v>39</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G21" s="9">
         <v>1</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="9">
-        <v>2</v>
-      </c>
-      <c r="H22" s="8"/>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="9">
-        <v>4</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G23" s="9"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1626,16 +1540,16 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="9">
-        <v>8</v>
+        <v>68</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="H24" s="8"/>
     </row>
@@ -1644,53 +1558,49 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G25" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="9">
-        <v>5</v>
-      </c>
-      <c r="H26" s="8"/>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="9">
-        <v>5</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G27" s="9"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1698,16 +1608,16 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="9">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="H28" s="8"/>
     </row>
@@ -1716,50 +1626,52 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G29" s="9">
         <v>1</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="7" t="s">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -1769,65 +1681,63 @@
         <v>39</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="9">
-        <v>2</v>
-      </c>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>91</v>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9">
+        <v>1</v>
       </c>
       <c r="H35" s="8"/>
     </row>
@@ -1839,31 +1749,29 @@
         <v>39</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>90</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F36" s="9"/>
       <c r="G36" s="9">
         <v>1</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7" t="s">
-        <v>15</v>
-      </c>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
@@ -1873,13 +1781,13 @@
         <v>39</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
       </c>
       <c r="H38" s="8"/>
     </row>
@@ -1891,10 +1799,10 @@
         <v>39</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
@@ -1904,7 +1812,7 @@
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>37</v>
@@ -1914,7 +1822,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1922,16 +1830,16 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>95</v>
+        <v>78</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
       </c>
       <c r="H41" s="8"/>
     </row>
@@ -1940,34 +1848,36 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="9">
+        <v>2</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="9">
-        <v>1</v>
-      </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="F43" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -1977,13 +1887,13 @@
         <v>39</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -1995,47 +1905,49 @@
         <v>39</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="G45" s="9">
+        <v>2</v>
       </c>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7" t="s">
-        <v>29</v>
-      </c>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="9">
+        <v>2</v>
+      </c>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" s="9">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H47" s="8"/>
     </row>
@@ -2044,14 +1956,16 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="H48" s="8"/>
     </row>
@@ -2063,11 +1977,13 @@
         <v>39</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="G49" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49" s="8"/>
     </row>
@@ -2079,11 +1995,13 @@
         <v>39</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
-        <v>138</v>
+        <v>102</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="9">
+        <v>5</v>
       </c>
       <c r="H50" s="8"/>
     </row>
@@ -2092,14 +2010,16 @@
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
-        <v>137</v>
+        <v>49</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="9">
+        <v>2</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -2108,13 +2028,13 @@
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="G52" s="9">
         <v>1</v>
@@ -2126,408 +2046,18 @@
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="G53" s="9">
         <v>1</v>
       </c>
       <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="9">
-        <v>1</v>
-      </c>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G57" s="9">
-        <v>1</v>
-      </c>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="9">
-        <v>2</v>
-      </c>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G62" s="9">
-        <v>1</v>
-      </c>
-      <c r="H62" s="8"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63" s="9">
-        <v>1</v>
-      </c>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G64" s="9">
-        <v>1</v>
-      </c>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G65" s="9">
-        <v>1</v>
-      </c>
-      <c r="H65" s="8"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G67" s="9">
-        <v>2</v>
-      </c>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G68" s="9">
-        <v>2</v>
-      </c>
-      <c r="H68" s="8"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H70" s="8"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G71" s="9">
-        <v>6</v>
-      </c>
-      <c r="H71" s="8"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G72" s="9">
-        <v>4</v>
-      </c>
-      <c r="H72" s="8"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G73" s="9">
-        <v>2</v>
-      </c>
-      <c r="H73" s="8"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G74" s="9">
-        <v>1</v>
-      </c>
-      <c r="H74" s="8"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G75" s="9">
-        <v>1</v>
-      </c>
-      <c r="H75" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5E702E9-21AE-4D41-B19F-97B9F0F92540}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="10380" windowHeight="10836" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0900" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="99">
   <si>
     <t>System</t>
   </si>
@@ -191,27 +190,9 @@
     <t>EN_A0900_P</t>
   </si>
   <si>
-    <t>Mount, Vibration-Damping, Sandwich</t>
-  </si>
-  <si>
     <t>Weld</t>
   </si>
   <si>
-    <t>Nut, Grade 8.8 (SAE 5)</t>
-  </si>
-  <si>
-    <t>Washer, Grade 8.8 (SAE 5)</t>
-  </si>
-  <si>
-    <t>Bolt, Grade 8.8 (SAE 5)</t>
-  </si>
-  <si>
-    <t>Hose Clamp, Worm Drive</t>
-  </si>
-  <si>
-    <t>Vibration-Damping, Sandwich for fuel tank</t>
-  </si>
-  <si>
     <t>Vibration dampings sandwich on Fuel tank</t>
   </si>
   <si>
@@ -227,9 +208,6 @@
     <t>M4 washer for vibration damping sandwich</t>
   </si>
   <si>
-    <t>Aluminum, Normal (per kg)</t>
-  </si>
-  <si>
     <t>Fuel tank plate material</t>
   </si>
   <si>
@@ -254,9 +232,6 @@
     <t>For Dash6 connection</t>
   </si>
   <si>
-    <t>Sheet metal bends</t>
-  </si>
-  <si>
     <t>Upper plate</t>
   </si>
   <si>
@@ -275,21 +250,12 @@
     <t>42cm</t>
   </si>
   <si>
-    <t>Tube cut</t>
-  </si>
-  <si>
     <t>Neck tube cut</t>
   </si>
   <si>
-    <t>Fuel tank welding + neck tube</t>
-  </si>
-  <si>
     <t>4.5cm</t>
   </si>
   <si>
-    <t>486cm</t>
-  </si>
-  <si>
     <t>Cut (scissors, knife)</t>
   </si>
   <si>
@@ -326,57 +292,21 @@
     <t>4cm</t>
   </si>
   <si>
-    <t>Hose, FEP</t>
-  </si>
-  <si>
-    <t>Fuel Check Valve, In-line, Aluminum Rollover</t>
-  </si>
-  <si>
-    <t>Cap material</t>
-  </si>
-  <si>
-    <t>Machning Setup, Install and Remove</t>
-  </si>
-  <si>
-    <t>Machining</t>
-  </si>
-  <si>
-    <t>Fuel Check Valve hole (20mm)</t>
-  </si>
-  <si>
-    <t>Fuel Check Valve assembling</t>
-  </si>
-  <si>
-    <t>12cm^3</t>
-  </si>
-  <si>
     <t>Tighten vibration damping sandwich-Fuel Tank</t>
   </si>
   <si>
     <t>Assemble by hand</t>
   </si>
   <si>
-    <t xml:space="preserve">Aluminum, Normal </t>
-  </si>
-  <si>
     <t>Aluminum, 2017A</t>
   </si>
   <si>
-    <t>Ratchet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Screwdriver </t>
   </si>
   <si>
     <t>M4 bolt vibration damping sandwich</t>
   </si>
   <si>
-    <t xml:space="preserve">Drilled holes </t>
-  </si>
-  <si>
-    <t>Assemble by  hand</t>
-  </si>
-  <si>
     <t>0.145m</t>
   </si>
   <si>
@@ -387,16 +317,52 @@
   </si>
   <si>
     <t>Attach the filler tube to filler cap</t>
+  </si>
+  <si>
+    <t>Mount, vibration damping, Sandwich</t>
+  </si>
+  <si>
+    <t>Nut, Grade 8.8</t>
+  </si>
+  <si>
+    <t>Washer, Grade 8.8</t>
+  </si>
+  <si>
+    <t>Bolt, Grade 8.8</t>
+  </si>
+  <si>
+    <t>Tighten bolts (Ratchet, Wrench, Screwdriver, …)</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Laser cut setup, install and remove</t>
+  </si>
+  <si>
+    <t>Metrology</t>
+  </si>
+  <si>
+    <t>Bending</t>
+  </si>
+  <si>
+    <t>Neck tube</t>
+  </si>
+  <si>
+    <t>Hose clamps</t>
+  </si>
+  <si>
+    <t>Saw or tubing cut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +440,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -592,14 +569,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -633,11 +611,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="1" xr:uid="{AB1F5859-1D97-400D-A1B5-5B3B134C0D21}"/>
-    <cellStyle name="Style 1" xfId="2" xr:uid="{542822D6-76A2-49E1-89A4-48BE13D71C6F}"/>
+    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="3"/>
+    <cellStyle name="Style 1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -914,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -922,19 +907,19 @@
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -972,7 +957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -991,7 +976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1010,7 +995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1029,7 +1014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1048,7 +1033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1067,7 +1052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1086,7 +1071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1112,26 +1097,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="42.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1157,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -1171,7 +1156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>36</v>
@@ -1187,43 +1172,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="11">
-        <v>4</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G5" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1231,53 +1216,53 @@
         <v>39</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G6" s="9">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="11">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="9">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="11">
-        <v>4</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1285,35 +1270,31 @@
         <v>39</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G9" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="9">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1321,17 +1302,17 @@
         <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G11" s="9">
         <v>4</v>
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1339,17 +1320,17 @@
         <v>40</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G12" s="9">
         <v>8</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1357,17 +1338,17 @@
         <v>40</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G13" s="9">
         <v>4</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -1383,7 +1364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1391,495 +1372,461 @@
         <v>38</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>62</v>
+      <c r="E16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <v>1</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="E17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>60</v>
+      <c r="E20" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="G20" s="9">
+        <v>2</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7" t="s">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>57</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="E24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>65</v>
+      <c r="E25" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G29" s="9"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="E31" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>45</v>
+      <c r="E32" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9">
-        <v>1</v>
-      </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="9"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>93</v>
+      <c r="E37" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="G37" s="9"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="9">
-        <v>1</v>
-      </c>
+      <c r="E38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>105</v>
+      <c r="E39" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="9">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>99</v>
+        <v>39</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G41" s="9">
         <v>1</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="9">
-        <v>2</v>
-      </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1887,107 +1834,101 @@
         <v>39</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="9">
-        <v>2</v>
-      </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="9">
-        <v>2</v>
-      </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
       </c>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>88</v>
+        <v>68</v>
+      </c>
+      <c r="G48" s="9">
+        <v>2</v>
       </c>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>98</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="9">
-        <v>4</v>
+        <v>69</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1995,69 +1936,141 @@
         <v>39</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="9">
-        <v>5</v>
+        <v>70</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51" s="9">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G52" s="9">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="9">
+        <v>4</v>
+      </c>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="9">
+        <v>5</v>
+      </c>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="9">
+      <c r="E55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="9">
+        <v>2</v>
+      </c>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" s="9">
         <v>1</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA53C0-8842-4812-87CA-7CD0176E7781}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="10380" windowHeight="10836" activeTab="1"/>
+    <workbookView xWindow="1035" yWindow="0" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="97">
   <si>
     <t>System</t>
   </si>
@@ -223,9 +218,6 @@
     <t>Side plate</t>
   </si>
   <si>
-    <t>180cm</t>
-  </si>
-  <si>
     <t>Fitting, Weld-in, Male, Aluminum</t>
   </si>
   <si>
@@ -235,27 +227,15 @@
     <t>Upper plate</t>
   </si>
   <si>
-    <t>178cm</t>
-  </si>
-  <si>
     <t>Lower plate</t>
   </si>
   <si>
-    <t>128cm</t>
-  </si>
-  <si>
     <t>Cavity</t>
   </si>
   <si>
-    <t>42cm</t>
-  </si>
-  <si>
     <t>Neck tube cut</t>
   </si>
   <si>
-    <t>4.5cm</t>
-  </si>
-  <si>
     <t>Cut (scissors, knife)</t>
   </si>
   <si>
@@ -283,15 +263,6 @@
     <t>Attach filler tube to hose</t>
   </si>
   <si>
-    <t>8cm</t>
-  </si>
-  <si>
-    <t>10cm</t>
-  </si>
-  <si>
-    <t>4cm</t>
-  </si>
-  <si>
     <t>Tighten vibration damping sandwich-Fuel Tank</t>
   </si>
   <si>
@@ -301,21 +272,12 @@
     <t>Aluminum, 2017A</t>
   </si>
   <si>
-    <t xml:space="preserve">Screwdriver </t>
-  </si>
-  <si>
     <t>M4 bolt vibration damping sandwich</t>
   </si>
   <si>
-    <t>0.145m</t>
-  </si>
-  <si>
     <t>Hose  and sight tube mounting</t>
   </si>
   <si>
-    <t>Hose and sight tube clamp</t>
-  </si>
-  <si>
     <t>Attach the filler tube to filler cap</t>
   </si>
   <si>
@@ -353,16 +315,53 @@
   </si>
   <si>
     <t>Saw or tubing cut</t>
+  </si>
+  <si>
+    <t>Fuel tank welding</t>
+  </si>
+  <si>
+    <t>Vibration-damping, sandwitch for fuel tank</t>
+  </si>
+  <si>
+    <t>Drilled hole</t>
+  </si>
+  <si>
+    <t>Fuel Check Valve hole (20mm)</t>
+  </si>
+  <si>
+    <t>Tighten sight tube clamp on Hoses</t>
+  </si>
+  <si>
+    <t>Hose, Fluorinated ethylene propylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel check valve, in-line, aluminium </t>
+  </si>
+  <si>
+    <t>Sealing</t>
+  </si>
+  <si>
+    <t>Sealng test to the fuel line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="11">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="168" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00_);&quot;($&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,8 +451,93 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,8 +574,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -568,16 +662,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="5">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="21" fillId="2" borderId="5">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="21" fillId="0" borderId="5">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="7">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -617,12 +859,94 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="69">
+    <cellStyle name="Comma 2" xfId="14" xr:uid="{E97FDA39-42ED-4CC7-AEED-0EEF7834F3F6}"/>
+    <cellStyle name="Cost Table Plain" xfId="28" xr:uid="{9A61F9A1-E345-470B-9FC1-34C1F21C89C9}"/>
+    <cellStyle name="Cost_Green 2" xfId="56" xr:uid="{5A62F05D-47CC-49B7-8887-71FC6CD1E8DC}"/>
+    <cellStyle name="Currency 2" xfId="19" xr:uid="{9D88CFF9-9A7F-4233-BEDB-A8AF623D0ACF}"/>
+    <cellStyle name="Lien hypertexte 2" xfId="15" xr:uid="{67368A60-B4F9-442A-9C9C-BABD41D71422}"/>
+    <cellStyle name="Lien hypertexte 2 2" xfId="37" xr:uid="{D1DA7FD1-3C0C-4855-A660-64918CBB5475}"/>
+    <cellStyle name="Lien hypertexte 2 2 2" xfId="55" xr:uid="{D24E0468-C3A4-4B79-AA00-6B6648D62057}"/>
+    <cellStyle name="Lien hypertexte 2 3" xfId="39" xr:uid="{BD926556-AE0B-473E-9221-AAEF816775D8}"/>
+    <cellStyle name="Lien hypertexte 3" xfId="34" xr:uid="{5B455061-4E11-40EB-A235-2D28555158C9}"/>
+    <cellStyle name="Milliers 2 2" xfId="30" xr:uid="{FFEAB48E-47C9-49AD-AB7F-C928400AD984}"/>
+    <cellStyle name="Milliers 2 2 3" xfId="51" xr:uid="{A07529E3-ADD8-4EF0-B877-3C19803036C7}"/>
+    <cellStyle name="Milliers 2 2 4" xfId="44" xr:uid="{0F1FC922-48F4-4217-BD84-8BE195C67C69}"/>
+    <cellStyle name="Milliers 2 3" xfId="5" xr:uid="{34C9EC25-8940-4B14-B988-962C480BDF38}"/>
+    <cellStyle name="Milliers 3" xfId="26" xr:uid="{1F0C766E-183F-4CF2-ACE9-F2730CA69C4A}"/>
+    <cellStyle name="Milliers 3 4" xfId="32" xr:uid="{0022BFED-519F-49B8-81A1-59E93AEA19D0}"/>
+    <cellStyle name="Milliers 4" xfId="67" xr:uid="{EAFEB294-5771-422E-B12C-1BDF87263F6F}"/>
+    <cellStyle name="Moneda 2" xfId="17" xr:uid="{F84012B2-ECA0-44F4-B996-115E309D9B33}"/>
+    <cellStyle name="Monétaire 10" xfId="4" xr:uid="{64096A89-4514-4449-8690-658CEFD90A16}"/>
+    <cellStyle name="Monétaire 10 2" xfId="58" xr:uid="{B9EB98AA-4DC4-48D0-8D62-A4D32A01FD01}"/>
+    <cellStyle name="Monétaire 2" xfId="9" xr:uid="{93F1B7B2-2A49-429D-9272-F2CC8B0D4768}"/>
+    <cellStyle name="Monétaire 2 3" xfId="7" xr:uid="{AD84FAC2-27FF-448D-A347-D68F60460BBB}"/>
+    <cellStyle name="Monétaire 2 3 6" xfId="49" xr:uid="{8F945735-A32E-448E-A886-7B6275FDDC33}"/>
+    <cellStyle name="Monétaire 3" xfId="16" xr:uid="{332D83E1-A3E8-49F5-AD37-6DF613834646}"/>
+    <cellStyle name="Monétaire 35" xfId="11" xr:uid="{D79C0115-7170-4DF5-B30B-D98BB5CE30B9}"/>
+    <cellStyle name="Monétaire 4" xfId="23" xr:uid="{EC3C8DE9-085E-4F6F-AF51-69031AE1A26D}"/>
+    <cellStyle name="Monétaire 4 2" xfId="60" xr:uid="{9737297B-509B-4360-A7FE-874A091FE14B}"/>
+    <cellStyle name="Monétaire 4 3" xfId="27" xr:uid="{ADE95C55-000A-4B06-9D07-80300C8134B3}"/>
+    <cellStyle name="Neutral 2" xfId="24" xr:uid="{294DE03E-0A17-4624-ABA0-0F44AED2A7D3}"/>
+    <cellStyle name="Neutre 2" xfId="48" xr:uid="{2389E5DC-7B9A-4F8C-84F5-B4FAD3D3F632}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="1"/>
-    <cellStyle name="Normal_Sheet1" xfId="3"/>
-    <cellStyle name="Style 1" xfId="2"/>
+    <cellStyle name="Normal 10" xfId="22" xr:uid="{13E7DDE4-8133-4BEC-A3AE-01EF2A5EB79A}"/>
+    <cellStyle name="Normal 11" xfId="43" xr:uid="{38E3D8F4-EB68-4A3F-B4A6-B02304863B0D}"/>
+    <cellStyle name="Normal 12" xfId="41" xr:uid="{8F67DFD6-552F-431E-9FE6-9B0A5DB7D626}"/>
+    <cellStyle name="Normal 13" xfId="53" xr:uid="{A599570E-B106-4D95-9C72-6CD7C6A7E105}"/>
+    <cellStyle name="Normal 2" xfId="13" xr:uid="{63CCF948-A01D-46CE-8663-382E14375EEC}"/>
+    <cellStyle name="Normal 2 2" xfId="20" xr:uid="{D642A7FA-9438-4DF2-BB80-31EA2BBE8505}"/>
+    <cellStyle name="Normal 2 2 4 2 2" xfId="46" xr:uid="{E506D631-A001-4C17-92D0-FAE7AA7887FC}"/>
+    <cellStyle name="Normal 2 2 4 2 3" xfId="29" xr:uid="{FB9C3C00-F95B-4E4C-8CD7-63E302A902E2}"/>
+    <cellStyle name="Normal 2 2 4 3 2" xfId="33" xr:uid="{4463A41C-5670-4601-AD61-10BD245919D9}"/>
+    <cellStyle name="Normal 2 2 4 4" xfId="6" xr:uid="{42845AE2-E593-4BF3-A7B6-5C29DE77D340}"/>
+    <cellStyle name="Normal 2 2 4 4 4 2" xfId="42" xr:uid="{6ED796BA-BADA-44BB-8DD6-C67EA527F906}"/>
+    <cellStyle name="Normal 2 3" xfId="21" xr:uid="{F7F51563-24A1-414E-8E0B-F595D212C315}"/>
+    <cellStyle name="Normal 2 5" xfId="61" xr:uid="{C06A1123-FA81-465C-ABEF-432EF6DDFC97}"/>
+    <cellStyle name="Normal 3" xfId="12" xr:uid="{72D3EF1C-3588-4E2C-9BF7-4962BF4BEFEF}"/>
+    <cellStyle name="Normal 3 2 2" xfId="65" xr:uid="{BCB62BF8-17D8-40B3-9EBE-6D14C7780088}"/>
+    <cellStyle name="Normal 3 4" xfId="59" xr:uid="{8CD1BD33-523F-4604-B955-196B7DDEC5FF}"/>
+    <cellStyle name="Normal 3 6" xfId="62" xr:uid="{5479A3FD-7342-43F0-8B5F-1AE61AAEFE0E}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 4 2" xfId="31" xr:uid="{C2CAF85B-6757-48B4-9596-D5A34778F432}"/>
+    <cellStyle name="Normal 4 2 2" xfId="38" xr:uid="{04275968-7A44-4C62-B5A4-085A68CFB4C2}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="40" xr:uid="{8DC548FE-5794-4496-AA1B-051E4E67F8CF}"/>
+    <cellStyle name="Normal 4 2 3" xfId="54" xr:uid="{B627902C-8D09-43E6-A702-B308C2632031}"/>
+    <cellStyle name="Normal 4 3" xfId="35" xr:uid="{5F543DF3-22C2-4F65-8687-388E12D58345}"/>
+    <cellStyle name="Normal 4 4" xfId="57" xr:uid="{2EF2AC91-CE6E-436A-80F2-2FA1CDD9B630}"/>
+    <cellStyle name="Normal 5 2" xfId="45" xr:uid="{E77F355D-30B6-44CC-8A11-45BFD8BEB5FD}"/>
+    <cellStyle name="Normal 5 3" xfId="63" xr:uid="{EE13805D-660B-49D2-B001-228B4C5ACA1F}"/>
+    <cellStyle name="Normal 5 4" xfId="64" xr:uid="{EED1940D-BF0B-4D39-849B-596A18B7C87A}"/>
+    <cellStyle name="Normal 6" xfId="10" xr:uid="{45A2C6E0-ECAC-438D-96BD-EEC28737B58B}"/>
+    <cellStyle name="Normal 7 2" xfId="47" xr:uid="{12BD7092-728B-4A50-8286-894147C9545E}"/>
+    <cellStyle name="Normal 7 3" xfId="66" xr:uid="{0C03E6EF-DAEC-4DFA-B813-0D2BFAE1910B}"/>
+    <cellStyle name="Normal 7 4" xfId="68" xr:uid="{9B883AFC-F707-4799-813F-F674C7737D8A}"/>
+    <cellStyle name="Normal 8 2" xfId="50" xr:uid="{E45C8545-0665-4180-8FC4-ECEEF76AD7E5}"/>
+    <cellStyle name="Normal 9 2" xfId="52" xr:uid="{A9315FA3-F00F-46F1-99A3-507F97D26C69}"/>
+    <cellStyle name="Normal_Sheet1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Style 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Style 1 2" xfId="18" xr:uid="{31A512E7-5FA9-4D86-94A8-053CA094768E}"/>
+    <cellStyle name="Style 1 3" xfId="25" xr:uid="{49CF0BD4-78FB-4F7E-BD07-669B0C1D49B6}"/>
+    <cellStyle name="TableStyleLight1" xfId="8" xr:uid="{08F6996B-58E7-47BA-8104-18B2E9DD7BE5}"/>
+    <cellStyle name="TableStyleLight1 2" xfId="36" xr:uid="{56083814-469C-4A6C-A8AB-B6EF3FDFF00E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -899,7 +1223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -907,19 +1231,19 @@
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -957,7 +1281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -976,7 +1300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -995,7 +1319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1014,7 +1338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1033,7 +1357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1052,7 +1376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1071,7 +1395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1097,26 +1421,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="42.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -1156,7 +1480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>36</v>
@@ -1172,7 +1496,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1180,17 +1504,17 @@
         <v>38</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="G4" s="9">
         <v>3</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1208,61 +1532,61 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="9" t="s">
+    <row r="6" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>4</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="11">
         <v>4</v>
       </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1270,67 +1594,71 @@
         <v>39</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4</v>
+      </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9">
-        <v>4</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="9">
-        <v>8</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1338,99 +1666,105 @@
         <v>40</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="G13" s="9">
         <v>4</v>
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="9">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="G15" s="9">
+        <v>8</v>
+      </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="G16" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1438,111 +1772,123 @@
         <v>39</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="G19" s="9">
         <v>1</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>95</v>
+      <c r="E20" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>80</v>
+        <v>39</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="E23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="9">
+        <v>2</v>
+      </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1550,109 +1896,123 @@
         <v>39</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>95</v>
+      <c r="E27" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="9">
         <v>1</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>80</v>
+        <v>39</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="E30" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1660,109 +2020,123 @@
         <v>39</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>95</v>
+      <c r="E34" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>80</v>
+        <v>39</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="E37" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1770,237 +2144,243 @@
         <v>39</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1</v>
+      </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>95</v>
+      <c r="E41" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G41" s="9">
         <v>1</v>
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="F43" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>98</v>
+      <c r="E44" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1</v>
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
       </c>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="9">
-        <v>2</v>
-      </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>83</v>
+        <v>40</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9">
+        <v>1</v>
       </c>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
       </c>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="G52" s="9">
+        <v>2</v>
       </c>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="G53" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2008,69 +2388,141 @@
         <v>39</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G54" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G55" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G56" s="9">
         <v>1</v>
       </c>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G57" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="9">
+        <v>5</v>
+      </c>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" s="9">
+        <v>2</v>
+      </c>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="9">
+        <v>1</v>
+      </c>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
+      <c r="H61" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA53C0-8842-4812-87CA-7CD0176E7781}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C8A1E8-3E47-47DC-8077-7F4E0529BDFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="0" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="690" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -332,9 +332,6 @@
     <t>Tighten sight tube clamp on Hoses</t>
   </si>
   <si>
-    <t>Hose, Fluorinated ethylene propylene</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fuel check valve, in-line, aluminium </t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>Sealng test to the fuel line</t>
+  </si>
+  <si>
+    <t>Hose, FEP</t>
   </si>
 </sst>
 </file>
@@ -1424,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,10 +1648,10 @@
         <v>39</v>
       </c>
       <c r="E12" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="G12" s="21">
         <v>1</v>
@@ -2302,7 +2302,7 @@
         <v>40</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9">
@@ -2370,7 +2370,7 @@
         <v>38</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>64</v>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C8A1E8-3E47-47DC-8077-7F4E0529BDFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE7A952-33F6-4319-A14C-45E837692B7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="690" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
   <si>
     <t>System</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>Hose, FEP</t>
+  </si>
+  <si>
+    <t>Dash 6 plug for emptying the Fuel Tank</t>
+  </si>
+  <si>
+    <t>Female plug, Aluminium</t>
   </si>
 </sst>
 </file>
@@ -1422,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,52 +1736,52 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G19" s="9">
         <v>1</v>
@@ -1790,7 +1796,7 @@
         <v>39</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>54</v>
@@ -1808,7 +1814,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>54</v>
@@ -1826,7 +1832,7 @@
         <v>39</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>54</v>
@@ -1843,63 +1849,63 @@
       <c r="D23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>84</v>
+      <c r="E23" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="9">
         <v>2</v>
       </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G26" s="9">
         <v>1</v>
@@ -1914,7 +1920,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>57</v>
@@ -1932,7 +1938,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>57</v>
@@ -1950,7 +1956,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>57</v>
@@ -1967,8 +1973,8 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>84</v>
+      <c r="E30" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>57</v>
@@ -1978,52 +1984,52 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="9">
-        <v>1</v>
-      </c>
-      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G33" s="9">
         <v>1</v>
@@ -2038,7 +2044,7 @@
         <v>39</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>58</v>
@@ -2056,7 +2062,7 @@
         <v>39</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>58</v>
@@ -2074,7 +2080,7 @@
         <v>39</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>58</v>
@@ -2091,8 +2097,8 @@
       <c r="D37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>84</v>
+      <c r="E37" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>58</v>
@@ -2102,52 +2108,52 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7" t="s">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="9">
-        <v>1</v>
-      </c>
-      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G40" s="9">
         <v>1</v>
@@ -2162,7 +2168,7 @@
         <v>39</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>59</v>
@@ -2180,7 +2186,7 @@
         <v>39</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>59</v>
@@ -2198,7 +2204,7 @@
         <v>39</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>59</v>
@@ -2215,8 +2221,8 @@
       <c r="D44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>84</v>
+      <c r="E44" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>59</v>
@@ -2226,123 +2232,123 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="9">
-        <v>1</v>
-      </c>
-      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="9">
-        <v>1</v>
-      </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7" t="s">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8" t="s">
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9">
-        <v>1</v>
-      </c>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7" t="s">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="9">
-        <v>1</v>
-      </c>
-      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -2355,10 +2361,10 @@
         <v>72</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="8"/>
     </row>
@@ -2370,13 +2376,13 @@
         <v>38</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -2385,13 +2391,13 @@
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="9">
         <v>1</v>
@@ -2406,10 +2412,10 @@
         <v>39</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" s="9">
         <v>1</v>
@@ -2424,10 +2430,10 @@
         <v>39</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G56" s="9">
         <v>1</v>
@@ -2442,13 +2448,13 @@
         <v>39</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G57" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H57" s="8"/>
     </row>
@@ -2459,14 +2465,14 @@
       <c r="D58" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="20" t="s">
-        <v>80</v>
+      <c r="E58" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G58" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H58" s="8"/>
     </row>
@@ -2475,16 +2481,16 @@
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G59" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H59" s="8"/>
     </row>
@@ -2499,10 +2505,10 @@
         <v>86</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G60" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="8"/>
     </row>
@@ -2517,12 +2523,30 @@
         <v>86</v>
       </c>
       <c r="F61" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G61" s="9">
-        <v>1</v>
-      </c>
-      <c r="H61" s="8"/>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE7A952-33F6-4319-A14C-45E837692B7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D720A9-0E18-44DF-9894-549E77BCFA3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="165" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
     <t>Dash 6 plug for emptying the Fuel Tank</t>
   </si>
   <si>
-    <t>Female plug, Aluminium</t>
+    <t>Fitting, L.P, female plug, aluminium</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="A17:XFD17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D720A9-0E18-44DF-9894-549E77BCFA3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC29285F-8909-4EA7-A3CD-E1EB101A9700}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="165" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="90" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="102">
   <si>
     <t>System</t>
   </si>
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t>Fitting, L.P, female plug, aluminium</t>
+  </si>
+  <si>
+    <t>Thermal protection, adhesive</t>
+  </si>
+  <si>
+    <t>Thermal protection to the Fuel Tank</t>
+  </si>
+  <si>
+    <t>On the filler cap</t>
   </si>
 </sst>
 </file>
@@ -1428,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="F37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,95 +1529,95 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="8" t="s">
+    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="9">
         <v>4</v>
       </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <v>4</v>
       </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -1618,87 +1627,87 @@
         <v>39</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>4</v>
       </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="17">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="21">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="9">
-        <v>4</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="9">
-        <v>4</v>
-      </c>
-      <c r="H14" s="8"/>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -1708,13 +1717,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="G15" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -1726,98 +1735,98 @@
         <v>40</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G16" s="9">
         <v>4</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="9">
+        <v>8</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="9">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
+      <c r="G19" s="21">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>82</v>
+        <v>38</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G21" s="9">
         <v>1</v>
@@ -1832,7 +1841,7 @@
         <v>39</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>54</v>
@@ -1850,7 +1859,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>54</v>
@@ -1867,81 +1876,81 @@
       <c r="D24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>84</v>
+      <c r="E24" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G24" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>72</v>
+        <v>39</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G26" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="8"/>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>82</v>
+        <v>38</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G28" s="9">
         <v>1</v>
@@ -1956,7 +1965,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>57</v>
@@ -1974,7 +1983,7 @@
         <v>39</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>57</v>
@@ -1991,8 +2000,8 @@
       <c r="D31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>84</v>
+      <c r="E31" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>57</v>
@@ -2002,70 +2011,70 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7" t="s">
-        <v>15</v>
-      </c>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>72</v>
+        <v>39</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G33" s="9">
         <v>1</v>
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="9">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8"/>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>82</v>
+        <v>38</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G35" s="9">
         <v>1</v>
@@ -2080,7 +2089,7 @@
         <v>39</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>58</v>
@@ -2098,7 +2107,7 @@
         <v>39</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>58</v>
@@ -2115,8 +2124,8 @@
       <c r="D38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>84</v>
+      <c r="E38" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>58</v>
@@ -2126,70 +2135,70 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7" t="s">
-        <v>27</v>
-      </c>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>72</v>
+        <v>39</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G40" s="9">
         <v>1</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="9">
-        <v>1</v>
-      </c>
-      <c r="H41" s="8"/>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>82</v>
+        <v>38</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G42" s="9">
         <v>1</v>
@@ -2204,7 +2213,7 @@
         <v>39</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>59</v>
@@ -2222,7 +2231,7 @@
         <v>39</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>59</v>
@@ -2239,8 +2248,8 @@
       <c r="D45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>84</v>
+      <c r="E45" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>59</v>
@@ -2250,85 +2259,89 @@
       </c>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7" t="s">
-        <v>28</v>
-      </c>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="9">
-        <v>1</v>
-      </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" s="9">
-        <v>1</v>
-      </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="G50" s="9">
         <v>1</v>
       </c>
@@ -2337,54 +2350,52 @@
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="G52" s="9">
         <v>1</v>
       </c>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" s="9">
-        <v>2</v>
-      </c>
-      <c r="H53" s="8"/>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -2394,10 +2405,10 @@
         <v>38</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G54" s="9">
         <v>1</v>
@@ -2409,16 +2420,16 @@
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G55" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="8"/>
     </row>
@@ -2427,13 +2438,13 @@
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G56" s="9">
         <v>1</v>
@@ -2448,10 +2459,10 @@
         <v>39</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G57" s="9">
         <v>1</v>
@@ -2466,13 +2477,13 @@
         <v>39</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G58" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H58" s="8"/>
     </row>
@@ -2483,14 +2494,14 @@
       <c r="D59" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="20" t="s">
-        <v>80</v>
+      <c r="E59" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="G59" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H59" s="8"/>
     </row>
@@ -2499,16 +2510,16 @@
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G60" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H60" s="8"/>
     </row>
@@ -2517,16 +2528,16 @@
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G61" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H61" s="8"/>
     </row>
@@ -2541,12 +2552,48 @@
         <v>86</v>
       </c>
       <c r="F62" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="9">
+        <v>2</v>
+      </c>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="9">
-        <v>1</v>
-      </c>
-      <c r="H62" s="8"/>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
+      <c r="H64" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC29285F-8909-4EA7-A3CD-E1EB101A9700}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C84212B-9BBD-47FA-8F63-8526B6424B16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="90" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10410" yWindow="60" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0900" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="106">
   <si>
     <t>System</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Hose, FEP</t>
   </si>
   <si>
-    <t>Dash 6 plug for emptying the Fuel Tank</t>
-  </si>
-  <si>
     <t>Fitting, L.P, female plug, aluminium</t>
   </si>
   <si>
@@ -357,6 +354,21 @@
   </si>
   <si>
     <t>On the filler cap</t>
+  </si>
+  <si>
+    <t>Weld (Aluminium)</t>
+  </si>
+  <si>
+    <t>Dash 6 plug for draining the Fuel Tank</t>
+  </si>
+  <si>
+    <t>4 fois</t>
+  </si>
+  <si>
+    <t>5 fois</t>
+  </si>
+  <si>
+    <t>2 fois</t>
   </si>
 </sst>
 </file>
@@ -366,8 +378,8 @@
   <numFmts count="11">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="168" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
@@ -600,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -748,11 +760,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -781,18 +804,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="5">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="5">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="21" fillId="2" borderId="5">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
@@ -806,14 +829,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -834,7 +857,7 @@
     <xf numFmtId="169" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -891,77 +914,80 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="69">
-    <cellStyle name="Comma 2" xfId="14" xr:uid="{E97FDA39-42ED-4CC7-AEED-0EEF7834F3F6}"/>
-    <cellStyle name="Cost Table Plain" xfId="28" xr:uid="{9A61F9A1-E345-470B-9FC1-34C1F21C89C9}"/>
-    <cellStyle name="Cost_Green 2" xfId="56" xr:uid="{5A62F05D-47CC-49B7-8887-71FC6CD1E8DC}"/>
-    <cellStyle name="Currency 2" xfId="19" xr:uid="{9D88CFF9-9A7F-4233-BEDB-A8AF623D0ACF}"/>
-    <cellStyle name="Lien hypertexte 2" xfId="15" xr:uid="{67368A60-B4F9-442A-9C9C-BABD41D71422}"/>
-    <cellStyle name="Lien hypertexte 2 2" xfId="37" xr:uid="{D1DA7FD1-3C0C-4855-A660-64918CBB5475}"/>
-    <cellStyle name="Lien hypertexte 2 2 2" xfId="55" xr:uid="{D24E0468-C3A4-4B79-AA00-6B6648D62057}"/>
-    <cellStyle name="Lien hypertexte 2 3" xfId="39" xr:uid="{BD926556-AE0B-473E-9221-AAEF816775D8}"/>
-    <cellStyle name="Lien hypertexte 3" xfId="34" xr:uid="{5B455061-4E11-40EB-A235-2D28555158C9}"/>
-    <cellStyle name="Milliers 2 2" xfId="30" xr:uid="{FFEAB48E-47C9-49AD-AB7F-C928400AD984}"/>
-    <cellStyle name="Milliers 2 2 3" xfId="51" xr:uid="{A07529E3-ADD8-4EF0-B877-3C19803036C7}"/>
-    <cellStyle name="Milliers 2 2 4" xfId="44" xr:uid="{0F1FC922-48F4-4217-BD84-8BE195C67C69}"/>
-    <cellStyle name="Milliers 2 3" xfId="5" xr:uid="{34C9EC25-8940-4B14-B988-962C480BDF38}"/>
-    <cellStyle name="Milliers 3" xfId="26" xr:uid="{1F0C766E-183F-4CF2-ACE9-F2730CA69C4A}"/>
-    <cellStyle name="Milliers 3 4" xfId="32" xr:uid="{0022BFED-519F-49B8-81A1-59E93AEA19D0}"/>
-    <cellStyle name="Milliers 4" xfId="67" xr:uid="{EAFEB294-5771-422E-B12C-1BDF87263F6F}"/>
-    <cellStyle name="Moneda 2" xfId="17" xr:uid="{F84012B2-ECA0-44F4-B996-115E309D9B33}"/>
-    <cellStyle name="Monétaire 10" xfId="4" xr:uid="{64096A89-4514-4449-8690-658CEFD90A16}"/>
-    <cellStyle name="Monétaire 10 2" xfId="58" xr:uid="{B9EB98AA-4DC4-48D0-8D62-A4D32A01FD01}"/>
-    <cellStyle name="Monétaire 2" xfId="9" xr:uid="{93F1B7B2-2A49-429D-9272-F2CC8B0D4768}"/>
-    <cellStyle name="Monétaire 2 3" xfId="7" xr:uid="{AD84FAC2-27FF-448D-A347-D68F60460BBB}"/>
-    <cellStyle name="Monétaire 2 3 6" xfId="49" xr:uid="{8F945735-A32E-448E-A886-7B6275FDDC33}"/>
-    <cellStyle name="Monétaire 3" xfId="16" xr:uid="{332D83E1-A3E8-49F5-AD37-6DF613834646}"/>
-    <cellStyle name="Monétaire 35" xfId="11" xr:uid="{D79C0115-7170-4DF5-B30B-D98BB5CE30B9}"/>
-    <cellStyle name="Monétaire 4" xfId="23" xr:uid="{EC3C8DE9-085E-4F6F-AF51-69031AE1A26D}"/>
-    <cellStyle name="Monétaire 4 2" xfId="60" xr:uid="{9737297B-509B-4360-A7FE-874A091FE14B}"/>
-    <cellStyle name="Monétaire 4 3" xfId="27" xr:uid="{ADE95C55-000A-4B06-9D07-80300C8134B3}"/>
-    <cellStyle name="Neutral 2" xfId="24" xr:uid="{294DE03E-0A17-4624-ABA0-0F44AED2A7D3}"/>
-    <cellStyle name="Neutre 2" xfId="48" xr:uid="{2389E5DC-7B9A-4F8C-84F5-B4FAD3D3F632}"/>
+    <cellStyle name="Comma 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Cost Table Plain" xfId="28" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Cost_Green 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Lien hypertexte 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Lien hypertexte 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Lien hypertexte 2 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Lien hypertexte 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Lien hypertexte 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Milliers 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Milliers 2 2 3" xfId="51" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Milliers 2 2 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Milliers 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Milliers 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Milliers 3 4" xfId="32" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Milliers 4" xfId="67" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Moneda 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Monétaire 10" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Monétaire 10 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Monétaire 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Monétaire 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Monétaire 2 3 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Monétaire 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Monétaire 35" xfId="11" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Monétaire 4" xfId="23" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Monétaire 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Monétaire 4 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Neutral 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Neutre 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="22" xr:uid="{13E7DDE4-8133-4BEC-A3AE-01EF2A5EB79A}"/>
-    <cellStyle name="Normal 11" xfId="43" xr:uid="{38E3D8F4-EB68-4A3F-B4A6-B02304863B0D}"/>
-    <cellStyle name="Normal 12" xfId="41" xr:uid="{8F67DFD6-552F-431E-9FE6-9B0A5DB7D626}"/>
-    <cellStyle name="Normal 13" xfId="53" xr:uid="{A599570E-B106-4D95-9C72-6CD7C6A7E105}"/>
-    <cellStyle name="Normal 2" xfId="13" xr:uid="{63CCF948-A01D-46CE-8663-382E14375EEC}"/>
-    <cellStyle name="Normal 2 2" xfId="20" xr:uid="{D642A7FA-9438-4DF2-BB80-31EA2BBE8505}"/>
-    <cellStyle name="Normal 2 2 4 2 2" xfId="46" xr:uid="{E506D631-A001-4C17-92D0-FAE7AA7887FC}"/>
-    <cellStyle name="Normal 2 2 4 2 3" xfId="29" xr:uid="{FB9C3C00-F95B-4E4C-8CD7-63E302A902E2}"/>
-    <cellStyle name="Normal 2 2 4 3 2" xfId="33" xr:uid="{4463A41C-5670-4601-AD61-10BD245919D9}"/>
-    <cellStyle name="Normal 2 2 4 4" xfId="6" xr:uid="{42845AE2-E593-4BF3-A7B6-5C29DE77D340}"/>
-    <cellStyle name="Normal 2 2 4 4 4 2" xfId="42" xr:uid="{6ED796BA-BADA-44BB-8DD6-C67EA527F906}"/>
-    <cellStyle name="Normal 2 3" xfId="21" xr:uid="{F7F51563-24A1-414E-8E0B-F595D212C315}"/>
-    <cellStyle name="Normal 2 5" xfId="61" xr:uid="{C06A1123-FA81-465C-ABEF-432EF6DDFC97}"/>
-    <cellStyle name="Normal 3" xfId="12" xr:uid="{72D3EF1C-3588-4E2C-9BF7-4962BF4BEFEF}"/>
-    <cellStyle name="Normal 3 2 2" xfId="65" xr:uid="{BCB62BF8-17D8-40B3-9EBE-6D14C7780088}"/>
-    <cellStyle name="Normal 3 4" xfId="59" xr:uid="{8CD1BD33-523F-4604-B955-196B7DDEC5FF}"/>
-    <cellStyle name="Normal 3 6" xfId="62" xr:uid="{5479A3FD-7342-43F0-8B5F-1AE61AAEFE0E}"/>
-    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 4 2" xfId="31" xr:uid="{C2CAF85B-6757-48B4-9596-D5A34778F432}"/>
-    <cellStyle name="Normal 4 2 2" xfId="38" xr:uid="{04275968-7A44-4C62-B5A4-085A68CFB4C2}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="40" xr:uid="{8DC548FE-5794-4496-AA1B-051E4E67F8CF}"/>
-    <cellStyle name="Normal 4 2 3" xfId="54" xr:uid="{B627902C-8D09-43E6-A702-B308C2632031}"/>
-    <cellStyle name="Normal 4 3" xfId="35" xr:uid="{5F543DF3-22C2-4F65-8687-388E12D58345}"/>
-    <cellStyle name="Normal 4 4" xfId="57" xr:uid="{2EF2AC91-CE6E-436A-80F2-2FA1CDD9B630}"/>
-    <cellStyle name="Normal 5 2" xfId="45" xr:uid="{E77F355D-30B6-44CC-8A11-45BFD8BEB5FD}"/>
-    <cellStyle name="Normal 5 3" xfId="63" xr:uid="{EE13805D-660B-49D2-B001-228B4C5ACA1F}"/>
-    <cellStyle name="Normal 5 4" xfId="64" xr:uid="{EED1940D-BF0B-4D39-849B-596A18B7C87A}"/>
-    <cellStyle name="Normal 6" xfId="10" xr:uid="{45A2C6E0-ECAC-438D-96BD-EEC28737B58B}"/>
-    <cellStyle name="Normal 7 2" xfId="47" xr:uid="{12BD7092-728B-4A50-8286-894147C9545E}"/>
-    <cellStyle name="Normal 7 3" xfId="66" xr:uid="{0C03E6EF-DAEC-4DFA-B813-0D2BFAE1910B}"/>
-    <cellStyle name="Normal 7 4" xfId="68" xr:uid="{9B883AFC-F707-4799-813F-F674C7737D8A}"/>
-    <cellStyle name="Normal 8 2" xfId="50" xr:uid="{E45C8545-0665-4180-8FC4-ECEEF76AD7E5}"/>
-    <cellStyle name="Normal 9 2" xfId="52" xr:uid="{A9315FA3-F00F-46F1-99A3-507F97D26C69}"/>
-    <cellStyle name="Normal_Sheet1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Style 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Style 1 2" xfId="18" xr:uid="{31A512E7-5FA9-4D86-94A8-053CA094768E}"/>
-    <cellStyle name="Style 1 3" xfId="25" xr:uid="{49CF0BD4-78FB-4F7E-BD07-669B0C1D49B6}"/>
-    <cellStyle name="TableStyleLight1" xfId="8" xr:uid="{08F6996B-58E7-47BA-8104-18B2E9DD7BE5}"/>
-    <cellStyle name="TableStyleLight1 2" xfId="36" xr:uid="{56083814-469C-4A6C-A8AB-B6EF3FDFF00E}"/>
+    <cellStyle name="Normal 10" xfId="22" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 11" xfId="43" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 12" xfId="41" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 13" xfId="53" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 2 2 4 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 2 2 4 2 3" xfId="29" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 2 2 4 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 2 2 4 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 2 2 4 4 4 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 2 5" xfId="61" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 3 4" xfId="59" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 3 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 4 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 4 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Normal 4 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal 5 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal 5 3" xfId="63" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 5 4" xfId="64" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 6" xfId="10" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal 7 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Normal 7 3" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Normal 7 4" xfId="68" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Normal 8 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="3" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Style 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Style 1 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Style 1 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="8" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="TableStyleLight1 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1437,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,13 +1475,12 @@
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
+    <col min="5" max="6" width="42.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1481,7 +1506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -1495,7 +1520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>36</v>
@@ -1511,115 +1536,121 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+    <row r="4" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="9">
-        <v>3</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="E4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="G4" s="21">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="9">
-        <v>4</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="11">
-        <v>4</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1627,53 +1658,56 @@
         <v>39</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="9">
-        <v>4</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="I10" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>90</v>
       </c>
+      <c r="F11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="F12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -1681,35 +1715,35 @@
         <v>39</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G13" s="21">
         <v>1</v>
       </c>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="21">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="9">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1717,17 +1751,17 @@
         <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="G15" s="9">
         <v>4</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1735,17 +1769,17 @@
         <v>40</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1753,35 +1787,35 @@
         <v>40</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G17" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+    <row r="18" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="9">
-        <v>4</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G18" s="21">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -1789,17 +1823,17 @@
         <v>40</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G19" s="21">
         <v>1</v>
       </c>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
         <v>18</v>
@@ -1815,7 +1849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1833,7 +1867,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1851,7 +1885,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1869,7 +1903,7 @@
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1887,7 +1921,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1905,7 +1939,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1919,11 +1953,14 @@
         <v>54</v>
       </c>
       <c r="G26" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
         <v>19</v>
@@ -1939,7 +1976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1957,7 +1994,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1975,7 +2012,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1993,7 +2030,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2011,7 +2048,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2311,7 +2348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -2329,7 +2366,7 @@
       </c>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2347,7 +2384,7 @@
       </c>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
         <v>9</v>
@@ -2363,7 +2400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2374,14 +2411,14 @@
         <v>93</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G52" s="9">
         <v>1</v>
       </c>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
         <v>10</v>
@@ -2397,7 +2434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2415,7 +2452,7 @@
       </c>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2433,7 +2470,7 @@
       </c>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2451,7 +2488,7 @@
       </c>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2469,7 +2506,7 @@
       </c>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2487,7 +2524,7 @@
       </c>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2505,7 +2542,7 @@
       </c>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2519,11 +2556,14 @@
         <v>74</v>
       </c>
       <c r="G60" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2537,11 +2577,14 @@
         <v>92</v>
       </c>
       <c r="G61" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2559,7 +2602,7 @@
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2577,7 +2620,7 @@
       </c>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,25 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C84212B-9BBD-47FA-8F63-8526B6424B16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798BC42C-CA3D-4536-9484-7C082760A5B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="60" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="90" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0900" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="109">
   <si>
     <t>System</t>
   </si>
@@ -209,9 +215,6 @@
     <t>Machining Setup, Install and Remove</t>
   </si>
   <si>
-    <t>Plate material cut</t>
-  </si>
-  <si>
     <t>Laser cut</t>
   </si>
   <si>
@@ -347,9 +350,6 @@
     <t>Fitting, L.P, female plug, aluminium</t>
   </si>
   <si>
-    <t>Thermal protection, adhesive</t>
-  </si>
-  <si>
     <t>Thermal protection to the Fuel Tank</t>
   </si>
   <si>
@@ -369,6 +369,21 @@
   </si>
   <si>
     <t>2 fois</t>
+  </si>
+  <si>
+    <t>Preparing Fuel Tank laser cut</t>
+  </si>
+  <si>
+    <t>Fiberglass Insulation</t>
+  </si>
+  <si>
+    <t>Glue, High temperature resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To fix the thermal protection </t>
+  </si>
+  <si>
+    <t>Thermal protection of the Fuel Tank</t>
   </si>
 </sst>
 </file>
@@ -1463,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,111 +1559,111 @@
         <v>38</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="21">
-        <v>1</v>
-      </c>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="F7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -1658,54 +1673,54 @@
         <v>39</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="17">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="21">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20"/>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
@@ -1715,33 +1730,33 @@
         <v>39</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G13" s="21">
         <v>1</v>
       </c>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="9">
-        <v>4</v>
-      </c>
-      <c r="H14" s="8"/>
+    <row r="14" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -1751,10 +1766,10 @@
         <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="G15" s="9">
         <v>4</v>
@@ -1769,13 +1784,13 @@
         <v>40</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -1787,98 +1802,98 @@
         <v>40</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G17" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="21">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="G18" s="9">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>102</v>
+      <c r="E19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="G19" s="21">
         <v>1</v>
       </c>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="21">
+        <v>1</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
@@ -1893,10 +1908,10 @@
         <v>39</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="9">
         <v>1</v>
@@ -1911,10 +1926,10 @@
         <v>39</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="G24" s="9">
         <v>1</v>
@@ -1929,10 +1944,10 @@
         <v>39</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="9">
         <v>1</v>
@@ -1946,66 +1961,66 @@
       <c r="D26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>84</v>
+      <c r="E26" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="9">
         <v>1</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="I26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G29" s="9">
         <v>1</v>
@@ -2020,10 +2035,10 @@
         <v>39</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G30" s="9">
         <v>1</v>
@@ -2038,10 +2053,10 @@
         <v>39</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
@@ -2056,10 +2071,10 @@
         <v>39</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" s="9">
         <v>1</v>
@@ -2073,63 +2088,63 @@
       <c r="D33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>84</v>
+      <c r="E33" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="9">
         <v>1</v>
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="9">
-        <v>1</v>
-      </c>
-      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G36" s="9">
         <v>1</v>
@@ -2144,10 +2159,10 @@
         <v>39</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G37" s="9">
         <v>1</v>
@@ -2162,10 +2177,10 @@
         <v>39</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G38" s="9">
         <v>1</v>
@@ -2180,10 +2195,10 @@
         <v>39</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
@@ -2197,63 +2212,63 @@
       <c r="D40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>84</v>
+      <c r="E40" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G40" s="9">
         <v>1</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7" t="s">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="9">
-        <v>1</v>
-      </c>
-      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G43" s="9">
         <v>1</v>
@@ -2268,10 +2283,10 @@
         <v>39</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G44" s="9">
         <v>1</v>
@@ -2286,10 +2301,10 @@
         <v>39</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G45" s="9">
         <v>1</v>
@@ -2304,10 +2319,10 @@
         <v>39</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G46" s="9">
         <v>1</v>
@@ -2321,136 +2336,136 @@
       <c r="D47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>84</v>
+      <c r="E47" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
       </c>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7" t="s">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G49" s="9">
-        <v>1</v>
-      </c>
-      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G50" s="9">
         <v>1</v>
       </c>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7" t="s">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
+    <row r="53" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="9">
-        <v>1</v>
-      </c>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
+      <c r="E53" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" s="9">
-        <v>1</v>
-      </c>
-      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -2460,13 +2475,13 @@
         <v>38</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G55" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="8"/>
     </row>
@@ -2478,13 +2493,13 @@
         <v>38</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G56" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="8"/>
     </row>
@@ -2493,13 +2508,13 @@
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G57" s="9">
         <v>1</v>
@@ -2514,10 +2529,10 @@
         <v>39</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G58" s="9">
         <v>1</v>
@@ -2532,10 +2547,10 @@
         <v>39</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G59" s="9">
         <v>1</v>
@@ -2550,18 +2565,15 @@
         <v>39</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G60" s="9">
         <v>1</v>
       </c>
       <c r="H60" s="8"/>
-      <c r="I60" s="22" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -2570,18 +2582,18 @@
       <c r="D61" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="20" t="s">
-        <v>80</v>
+      <c r="E61" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G61" s="9">
         <v>1</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2589,18 +2601,21 @@
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="G62" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="8"/>
+      <c r="I62" s="22" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -2610,13 +2625,13 @@
         <v>40</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G63" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" s="8"/>
     </row>
@@ -2628,15 +2643,33 @@
         <v>40</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G64" s="9">
         <v>1</v>
       </c>
       <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
+      <c r="H65" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798BC42C-CA3D-4536-9484-7C082760A5B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{658CBC51-CDB1-45E2-8C6A-2385F6C4E556}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="90" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="108">
   <si>
     <t>System</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Fuel tank plate material</t>
   </si>
   <si>
-    <t>Machining Setup, Install and Remove</t>
-  </si>
-  <si>
     <t>Laser cut</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     <t>2 fois</t>
   </si>
   <si>
-    <t>Preparing Fuel Tank laser cut</t>
-  </si>
-  <si>
     <t>Fiberglass Insulation</t>
   </si>
   <si>
@@ -384,6 +378,9 @@
   </si>
   <si>
     <t>Thermal protection of the Fuel Tank</t>
+  </si>
+  <si>
+    <t>Liquid applicator gun</t>
   </si>
 </sst>
 </file>
@@ -1480,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,10 +1556,10 @@
         <v>38</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G4" s="21">
         <v>1</v>
@@ -1577,93 +1574,93 @@
         <v>38</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G5" s="21">
         <v>1</v>
       </c>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="12" t="s">
-        <v>101</v>
-      </c>
+      <c r="F9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -1673,54 +1670,54 @@
         <v>39</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="22" t="s">
-        <v>101</v>
-      </c>
+      <c r="I10" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>89</v>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
@@ -1730,10 +1727,10 @@
         <v>39</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G13" s="21">
         <v>1</v>
@@ -1748,10 +1745,10 @@
         <v>39</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G14" s="21">
         <v>1</v>
@@ -1766,10 +1763,10 @@
         <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="9">
         <v>4</v>
@@ -1784,7 +1781,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>48</v>
@@ -1802,7 +1799,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>49</v>
@@ -1820,10 +1817,10 @@
         <v>40</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="9">
         <v>4</v>
@@ -1838,10 +1835,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="G19" s="21">
         <v>1</v>
@@ -1856,10 +1853,10 @@
         <v>40</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G20" s="21">
         <v>1</v>
@@ -1890,7 +1887,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>50</v>
@@ -1908,10 +1905,10 @@
         <v>39</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="9">
         <v>1</v>
@@ -1926,10 +1923,10 @@
         <v>39</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="9">
         <v>1</v>
@@ -1944,10 +1941,10 @@
         <v>39</v>
       </c>
       <c r="E25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="G25" s="9">
         <v>1</v>
@@ -1962,10 +1959,10 @@
         <v>39</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="9">
         <v>1</v>
@@ -1980,17 +1977,17 @@
         <v>39</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="9">
         <v>1</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2017,7 +2014,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>50</v>
@@ -2035,10 +2032,10 @@
         <v>39</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" s="9">
         <v>1</v>
@@ -2053,10 +2050,10 @@
         <v>39</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
@@ -2071,10 +2068,10 @@
         <v>39</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" s="9">
         <v>1</v>
@@ -2089,10 +2086,10 @@
         <v>39</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="9">
         <v>1</v>
@@ -2107,10 +2104,10 @@
         <v>39</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
@@ -2141,7 +2138,7 @@
         <v>38</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>50</v>
@@ -2159,10 +2156,10 @@
         <v>39</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G37" s="9">
         <v>1</v>
@@ -2177,10 +2174,10 @@
         <v>39</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G38" s="9">
         <v>1</v>
@@ -2195,10 +2192,10 @@
         <v>39</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
@@ -2213,10 +2210,10 @@
         <v>39</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G40" s="9">
         <v>1</v>
@@ -2231,10 +2228,10 @@
         <v>39</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G41" s="9">
         <v>1</v>
@@ -2265,7 +2262,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>50</v>
@@ -2283,10 +2280,10 @@
         <v>39</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="9">
         <v>1</v>
@@ -2301,10 +2298,10 @@
         <v>39</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G45" s="9">
         <v>1</v>
@@ -2319,10 +2316,10 @@
         <v>39</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G46" s="9">
         <v>1</v>
@@ -2337,10 +2334,10 @@
         <v>39</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -2355,10 +2352,10 @@
         <v>39</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G48" s="9">
         <v>1</v>
@@ -2389,10 +2386,10 @@
         <v>38</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" s="9">
         <v>1</v>
@@ -2407,10 +2404,10 @@
         <v>39</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51" s="9">
         <v>1</v>
@@ -2441,10 +2438,10 @@
         <v>40</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G53" s="9">
         <v>1</v>
@@ -2475,10 +2472,10 @@
         <v>38</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G55" s="9">
         <v>1</v>
@@ -2493,10 +2490,10 @@
         <v>38</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G56" s="9">
         <v>2</v>
@@ -2511,10 +2508,10 @@
         <v>38</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="9">
         <v>1</v>
@@ -2529,10 +2526,10 @@
         <v>39</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="9">
         <v>1</v>
@@ -2550,7 +2547,7 @@
         <v>44</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" s="9">
         <v>1</v>
@@ -2565,10 +2562,10 @@
         <v>39</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" s="9">
         <v>1</v>
@@ -2583,17 +2580,17 @@
         <v>39</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G61" s="9">
         <v>1</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2604,17 +2601,17 @@
         <v>39</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G62" s="9">
         <v>1</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2625,10 +2622,10 @@
         <v>40</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G63" s="9">
         <v>2</v>
@@ -2643,10 +2640,10 @@
         <v>40</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G64" s="9">
         <v>1</v>
@@ -2661,10 +2658,10 @@
         <v>40</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G65" s="9">
         <v>1</v>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{658CBC51-CDB1-45E2-8C6A-2385F6C4E556}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBF7925-F4AC-4BFB-B766-E77A4746EBBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="111">
   <si>
     <t>System</t>
   </si>
@@ -381,6 +381,15 @@
   </si>
   <si>
     <t>Liquid applicator gun</t>
+  </si>
+  <si>
+    <t>Fluide, gasoline 98RON</t>
+  </si>
+  <si>
+    <t>2l</t>
+  </si>
+  <si>
+    <t>For the engine checks</t>
   </si>
 </sst>
 </file>
@@ -1475,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,83 +1593,86 @@
       </c>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
+    <row r="6" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="22" t="s">
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8" t="s">
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="12" t="s">
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -1670,54 +1682,54 @@
         <v>39</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="22" t="s">
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="18" t="s">
+    <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="17">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="21">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20"/>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
@@ -1727,10 +1739,10 @@
         <v>39</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G13" s="21">
         <v>1</v>
@@ -1745,33 +1757,33 @@
         <v>39</v>
       </c>
       <c r="E14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="21">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="9">
-        <v>4</v>
-      </c>
-      <c r="H15" s="8"/>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -1781,10 +1793,10 @@
         <v>40</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G16" s="9">
         <v>4</v>
@@ -1799,13 +1811,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H17" s="8"/>
     </row>
@@ -1817,98 +1829,98 @@
         <v>40</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G18" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="21">
-        <v>1</v>
-      </c>
-      <c r="H19" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="G19" s="9">
+        <v>4</v>
+      </c>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F21" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="21">
-        <v>1</v>
-      </c>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
+      <c r="G21" s="21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G23" s="9">
         <v>1</v>
@@ -1923,7 +1935,7 @@
         <v>39</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>52</v>
@@ -1941,7 +1953,7 @@
         <v>39</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>52</v>
@@ -1959,7 +1971,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>52</v>
@@ -1976,8 +1988,8 @@
       <c r="D27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>82</v>
+      <c r="E27" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>52</v>
@@ -1986,56 +1998,56 @@
         <v>1</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="I27" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G30" s="9">
         <v>1</v>
@@ -2050,7 +2062,7 @@
         <v>39</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>55</v>
@@ -2068,7 +2080,7 @@
         <v>39</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>55</v>
@@ -2086,7 +2098,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>55</v>
@@ -2103,8 +2115,8 @@
       <c r="D34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>82</v>
+      <c r="E34" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>55</v>
@@ -2114,52 +2126,52 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="9">
-        <v>1</v>
-      </c>
-      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G37" s="9">
         <v>1</v>
@@ -2174,7 +2186,7 @@
         <v>39</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>56</v>
@@ -2192,7 +2204,7 @@
         <v>39</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>56</v>
@@ -2210,7 +2222,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>56</v>
@@ -2227,8 +2239,8 @@
       <c r="D41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>82</v>
+      <c r="E41" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>56</v>
@@ -2238,52 +2250,52 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="9">
-        <v>1</v>
-      </c>
-      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G44" s="9">
         <v>1</v>
@@ -2298,7 +2310,7 @@
         <v>39</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>57</v>
@@ -2316,7 +2328,7 @@
         <v>39</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>57</v>
@@ -2334,7 +2346,7 @@
         <v>39</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>57</v>
@@ -2351,8 +2363,8 @@
       <c r="D48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>82</v>
+      <c r="E48" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>57</v>
@@ -2362,125 +2374,125 @@
       </c>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7" t="s">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="9">
-        <v>1</v>
-      </c>
-      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F52" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="9">
-        <v>1</v>
-      </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7" t="s">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8" t="s">
+    <row r="54" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="9">
-        <v>1</v>
-      </c>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7" t="s">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="9">
-        <v>1</v>
-      </c>
-      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
@@ -2493,10 +2505,10 @@
         <v>70</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G56" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="8"/>
     </row>
@@ -2508,13 +2520,13 @@
         <v>38</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" s="8"/>
     </row>
@@ -2523,13 +2535,13 @@
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="9">
         <v>1</v>
@@ -2544,10 +2556,10 @@
         <v>39</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="9">
         <v>1</v>
@@ -2562,10 +2574,10 @@
         <v>39</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" s="9">
         <v>1</v>
@@ -2580,18 +2592,15 @@
         <v>39</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G61" s="9">
         <v>1</v>
       </c>
       <c r="H61" s="8"/>
-      <c r="I61" s="22" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -2600,18 +2609,18 @@
       <c r="D62" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="20" t="s">
-        <v>78</v>
+      <c r="E62" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G62" s="9">
         <v>1</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2619,18 +2628,21 @@
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>84</v>
+        <v>39</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G63" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="8"/>
+      <c r="I63" s="22" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -2643,10 +2655,10 @@
         <v>84</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G64" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="8"/>
     </row>
@@ -2661,12 +2673,30 @@
         <v>84</v>
       </c>
       <c r="F65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G65" s="9">
-        <v>1</v>
-      </c>
-      <c r="H65" s="8"/>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0900.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBF7925-F4AC-4BFB-B766-E77A4746EBBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733CE61E-640F-487F-9836-D39E4FD59A0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="780" windowWidth="10380" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="116">
   <si>
     <t>System</t>
   </si>
@@ -390,6 +390,21 @@
   </si>
   <si>
     <t>For the engine checks</t>
+  </si>
+  <si>
+    <t>Fill with liquids, grease, …</t>
+  </si>
+  <si>
+    <t>Gasoline in filler tube</t>
+  </si>
+  <si>
+    <t>Alu welded on fuel tank</t>
+  </si>
+  <si>
+    <t>Hose,rubber</t>
+  </si>
+  <si>
+    <t>reinforced(neck-tube),filler(tube-cap)</t>
   </si>
 </sst>
 </file>
@@ -1484,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,18 +1750,14 @@
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>39</v>
-      </c>
+      <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
         <v>92</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="21">
-        <v>1</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G13" s="21"/>
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1775,51 +1786,51 @@
         <v>39</v>
       </c>
       <c r="E15" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F17" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="21">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="9">
-        <v>4</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="9">
-        <v>4</v>
-      </c>
-      <c r="H17" s="8"/>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -1829,13 +1840,13 @@
         <v>40</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G18" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -1847,116 +1858,116 @@
         <v>40</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="G19" s="9">
         <v>4</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="9">
+        <v>8</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G22" s="21">
         <v>3</v>
       </c>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E23" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F23" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
+      <c r="G23" s="21">
+        <v>1</v>
+      </c>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G25" s="9">
         <v>1</v>
@@ -1971,7 +1982,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>52</v>
@@ -1989,7 +2000,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>52</v>
@@ -2006,8 +2017,8 @@
       <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>82</v>
+      <c r="E28" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>52</v>
@@ -2016,74 +2027,74 @@
         <v>1</v>
       </c>
       <c r="H28" s="8"/>
-      <c r="I28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>70</v>
+        <v>39</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G30" s="9">
         <v>1</v>
       </c>
       <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="9">
-        <v>1</v>
-      </c>
-      <c r="H31" s="8"/>
+      <c r="I30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G32" s="9">
         <v>1</v>
@@ -2098,7 +2109,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>55</v>
@@ -2116,7 +2127,7 @@
         <v>39</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>55</v>
@@ -2133,8 +2144,8 @@
       <c r="D35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>82</v>
+      <c r="E35" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>55</v>
@@ -2144,70 +2155,70 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
-        <v>15</v>
-      </c>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>70</v>
+        <v>39</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G37" s="9">
         <v>1</v>
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="9">
-        <v>1</v>
-      </c>
-      <c r="H38" s="8"/>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
@@ -2222,7 +2233,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>56</v>
@@ -2240,7 +2251,7 @@
         <v>39</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>56</v>
@@ -2257,8 +2268,8 @@
       <c r="D42" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>82</v>
+      <c r="E42" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>56</v>
@@ -2268,70 +2279,70 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
-        <v>27</v>
-      </c>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>70</v>
+        <v>39</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G44" s="9">
         <v>1</v>
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="9">
-        <v>1</v>
-      </c>
-      <c r="H45" s="8"/>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G46" s="9">
         <v>1</v>
@@ -2346,7 +2357,7 @@
         <v>39</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>57</v>
@@ -2364,7 +2375,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>57</v>
@@ -2374,15 +2385,15 @@
       </c>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>82</v>
+      <c r="E49" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>57</v>
@@ -2392,145 +2403,145 @@
       </c>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F53" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G51" s="9">
-        <v>1</v>
-      </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" s="9">
-        <v>1</v>
-      </c>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="G54" s="9">
         <v>1</v>
       </c>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="G56" s="9">
         <v>1</v>
       </c>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" s="9">
-        <v>2</v>
-      </c>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2538,71 +2549,69 @@
         <v>38</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G58" s="9">
         <v>1</v>
       </c>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G59" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G60" s="9">
         <v>1</v>
       </c>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G61" s="9">
-        <v>1</v>
-      </c>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="21">
+        <v>1</v>
+      </c>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2610,93 +2619,147 @@
         <v>39</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G62" s="9">
         <v>1</v>
       </c>
       <c r="H62" s="8"/>
-      <c r="I62" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="20" t="s">
-        <v>78</v>
+      <c r="E63" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="G63" s="9">
         <v>1</v>
       </c>
       <c r="H63" s="8"/>
-      <c r="I63" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G65" s="9">
         <v>1</v>
       </c>
       <c r="H65" s="8"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E67" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F67" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="9">
+        <v>2</v>
+      </c>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="9">
+        <v>1</v>
+      </c>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G66" s="9">
-        <v>1</v>
-      </c>
-      <c r="H66" s="8"/>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
+      <c r="H69" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
